--- a/deuChatbot/research_result/table_to_json(2500_200).xlsx
+++ b/deuChatbot/research_result/table_to_json(2500_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20895,6 +20895,6915 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하지 않고, 정보가 포함되어 있지 않다고 잘못 언급하고 있습니다. 원본 텍스트에는 실기시험에 대한 상세한 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본 텍스트는 실기시험에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 설명을 포함하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 설명을 제공하지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6298301131855346</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 디자인조형학과의 실기시험 내용이 포함되어 있지 않습니다. 디자인조형학과는 일반적으로 실기시험을 통해 학생들의 창의성, 기술적 능력 등을 평가받습니다. 하지만 정확한 시험 내용은 대학마다 다를 수 있으므로, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하여 디자인조형학과의 실기시험에 대한 자세한 정보를 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 배점 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 배점 비율을 추가함으로써 원본의 내용과 일관성이 떨어지는 부분이 있습니다. 원본 텍스트에는 배점에 대한 언급이 없기 때문에 이로 인해 일관성이 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 내용을 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율이 추가됨으로써 약간의 흐름이 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보는 원본에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 원본의 의도와는 약간의 차이가 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8101464574228932</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환 두 가지가 있습니다. 각 종목별로 배점 비율은 다음과 같습니다:
+1. **기초디자인**
+   - **배점**: 700점 (70%)
+2. **사고의 전환**
+   - **배점**: 700점 (70%)
+**준비물:**
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+**실기주제:**
+- 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+  - **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+**화지크기:**
+- 켄트지3절
+**시간:**
+- 5시간
+위와 같이 디자인조형학과의 실기고사 준비를 진행하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 누락되거나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회 목록이 동일하게 나열되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "위와 같은 대회들이 경기지도학과 모집종목별 인정대회에 포함되어 있습니다." 부분이 조금 더 자연스럽게 표현될 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회가 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다. 대회 이름과 종류가 모두 일치합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9091650062960309</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+1. 배드민턴(남)
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+위와 같은 대회들이 경기지도학과 모집종목별 인정대회에 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B에 포함된 항목들이 원본 텍스트와 일치하지 않습니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 주제B의 내용이 다르기 때문에, 주제A와 B의 연결 주제 예시도 원본과 일치하지 않게 됩니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주제B의 내용이 잘못되어 있어 전체적인 관련성에 약간의 문제가 있습니다. 그러나 주제A와 연결 주제에 대한 설명은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름이 있지만, 주제B의 잘못된 정보로 인해 연결 주제의 예시가 혼란스러워질 수 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부는 잘 작성되었지만, 사실성과 일관성에서 큰 문제가 있어 전체적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 전달하려고 했지만, 주제B의 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다. 따라서 의미 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 주제B의 오류로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.9159835496795096</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 선정하여 연결된 주제로 시험을 치릅니다. 예시로 잠자리와 저울이라는 주제가 있을 수 있습니다.
+주제A는 다음과 같습니다:
+- 잠자리
+- 무궁화
+- 피망 (오렌지)
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B는 다음과 같습니다:
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+당일에는 이 주제들 중에서 각각 1개씩을 추첨하여 연결된 주제를 만드는데, 예시로 잠자리와 콜라병이라는 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 원문과 상반된 내용을 담고 있습니다. 나군 실기/실적 전형에 대한 정보는 포함되어 있지만, 질문의 핵심인 학생부 교과 전형에 대한 정보는 잘못된 것입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 출결 점수가 반영되지 않는다고 명시하고 있지만, 생성된 응답에서는 반영된다고 주장하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 나군 실기/실적 전형에 대한 정보를 제공하지만, 질문의 핵심인 학생부 교과 전형에 대한 정보와는 관련이 없습니다. 주제와 관련된 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 나군 실기/실적 전형에 대한 정보를 일관되게 제시하고 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 질문의 맥락과도 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 질문과 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5944496754104435</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 학생부 출결상황이 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+이와 같이 출결 점수가 실기/실적 평가에 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원과 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실에 대한 왜곡이 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.926506747476267</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 28명의 신입생을 선발한다고 명확히 언급하고 있지만, 생성된 응답은 해당 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 제공된 정보와 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 정보에 대한 직접적인 답변을 제공하지 않고, 관련 정보가 부족하다는 점을 강조하고 있습니다. 따라서 원문과의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 왜곡하고 있으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 부합하지 않으며, 정보의 제공이 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5246404960379258</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 직접적인 모집인원 수가 없습니다. 해당 학과와 관련된 정보가 부족하여 정확한 답변을 드릴 수 없습니다. 더 자세한 내용을 확인하시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원 수를 110명으로 잘못 기재하고 있으며, 이는 원본 텍스트의 22명과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 간호학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원 수에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련이 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7162171703167729</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 등급과 점수가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 편이지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9163801877034965</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 각 등급별로 수능 영어 성적을 평가하는 기준입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 부정확하게 설명하고 있습니다. 예술고 출신 학생이 지원할 수 있는 전형에 대한 정보가 포함되어 있지만, 농어촌학생전형에 대한 잘못된 해석이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 예술고 학생이 농어촌학생전형에 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 예술고 출신 학생이 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 농어촌학생전형에 대한 잘못된 정보로 인해 일부 관련성이 떨어집니다. 그러나 예술고 학생의 지원 가능성에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 예술고 학생의 지원 가능성에 대한 설명과 농어촌학생전형에 대한 설명이 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생이 농어촌학생전형에 지원할 수 없다는 원본 텍스트의 사실을 잘못 해석하고 있습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 잘못된 정보로 인해 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6406832855268479</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합 평생학습자전형(성인학습자 정원내·외 전형)에 예술고 출신의 학생이 지원 가능합니다. 그러나 일반적으로 농어촌학생전형은 특정 지역의 농어촌 거주자를 대상으로 하는 특별한 전형이며, 예술고 출신 학생에게는 적용되지 않을 가능성이 큽니다.
+현재 제공된 정보로는 예술고 출신 학생이 나군 학생부교과 평생학습자전형(성인학습자 정원내·외 전형)으로 지원하는 것이 맞습니다. 농어촌학생전형의 경우, 지역적 요건과 기타 특정 조건을 충족해야 하므로 예술고 학생에게는 적용되지 않을 것으로 보입니다.
+만약 자세한 정보가 필요하다면, 해당 대학 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 기록과 배점이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8981315921827697</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 제공된 데이터에서 직접 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 부정확하게 전달하고 있습니다. 응답에서는 해당 비율을 확인할 수 없다고 하며, 다른 학과의 출결 반영 점수만 언급하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 경기지도학과의 출결 반영 비율이 12%라고 명확히 언급하고 있지만, 생성된 응답은 이를 부정하고 다른 학과의 정보만을 제공하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 질문에 대한 답변으로는 적절하지 않지만, 출결 관련 정보를 제공하고 있어 어느 정도 관련성이 있습니다. 그러나 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 출결 반영 비율에 대한 질문에 대한 답변이 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경기지도학과의 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다. 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 왜곡하고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 경기지도학과의 출결 반영 비율에 대한 질문에 대한 적절한 답변이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 핵심 질문에 대한 답변이 부족하여 혼란을 줄 수 있습니다. 정보가 나열되어 있지만, 질문에 대한 명확한 답변이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6360921962805434</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과에 대한 출결 반영 비율은 직접적으로 확인할 수 없습니다. 다른 학과들에 대한 출결 반영 점수만이 포함되어 있습니다. 
+출결 관련 정보는 다음과 같습니다:
+- 결석일수 0~2일: 반영점수 120
+- 결석일수 3~6일: 반영점수 90
+- 결석일수 7~12일: 반영점수 60
+- 결석일수 13~20일: 반영점수 30
+- 결석일수 21일 이상: 반영점수 0
+따라서 경기지도학과의 출결 반영 비율을 정확히 알려드리기는 어렵습니다. 다른 학과들과 동일한 방식으로 적용되는 것으로 보이지만, 확실한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 물리치료학과가 4명을 모집한다고 명시된 사실과 정반대의 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있어 일관성이 없습니다. 원본에서 모집 인원이 명확히 언급되었으나, 생성된 응답에서는 모집하지 않는다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보와 관련이 없으며, 물리치료학과의 모집 인원에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 어느 정도 일관성을 가지고 있으나, 내용의 부정확성으로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬우나, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7303614058850629</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 물리치료학과에 지원자를 모집하지 않습니다. 관련 정보가 제공된 데이터 내에서는 물리치료학과에 대한 정원 내 모집 인원이 기재되어 있지 않으며, 해당 분야는 나군 또는 다군에서 모집되고 있습니다.
+만약 다른 단과대학이나 모집단위에 대해 물리치료학과의 모집인원을 알고 싶다면, 데이터를 확인해 보시거나 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5071604355290144</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 자세한 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 상충되는 내용을 포함하고 있습니다. 응답에서는 응용화학과가 신설되지 않았다고 언급하고 있지만, 이는 원문에서 제공된 정보와는 관련이 없습니다. 원문은 수능 최저 기준이 없다는 사실만을 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 수능 최저 기준이 없다는 단순한 사실을 전달하고 있지만, 생성된 응답은 응용화학과의 신설 여부와 관련된 추가 정보를 제공하여 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 응용화학과의 신설 여부와 같은 부가적인 정보는 원문에서 요구하는 핵심 질문과는 거리가 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 이 정보들이 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 응답의 흐름이 다소 분산되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충되는 내용을 포함하고 있어 정확성 점수가 낮습니다. 원문은 수능 최저 기준이 없다는 점만을 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하려고 하지만, 부가적인 정보가 포함되어 있어 의미적으로 적절하지 않을 수 있습니다. 원문이 요구하는 정보와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 원문과의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4261979006409144</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 응용화학과가 신설되지 않았으며, 관련 정보가 제공된 범위 내에서는 응용화학과의 수능 최저기준이 명시되어 있지 않습니다. 
+현재 제공된 데이터는 학과 분리나 명칭 변경 등에 대한 내용이며, 응용화학과의 경우 2023년도에는 해당 학과가 없었습니다. 따라서 2024학년도 응용화학과의 수능 최저기준을 확인하기 위해서는 동의대학교의 공식 웹사이트나 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.
+더 자세한 정보를 원하시면, https://ipsi.deu.ac.kr/main.do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록에서 "심리학과", "스마트항만물류학과", "창업투자경영학과"는 언급했지만, "디자인공학부"와 관련된 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "디자인공학부"의 변경 사항은 원본 텍스트에 없으며, 이는 일관성을 해칩니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 불필요한 추가 정보가 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 주요 학과에 대한 언급은 적절하므로 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 다소 분산되어 있어 논리적인 흐름이 약간 부족합니다. 특히, "디자인공학부"에 대한 언급이 원본 텍스트와 관련이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 포함되지 않은 정보를 포함하고 있으며, 이는 정확성에 부정적인 영향을 미칩니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡되었습니다. 따라서 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 불필요한 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7159733332476192</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과"가 있습니다. 또한 "디자인공학부(인간·시스템디자인공학, 제품디자인공학)"는 분리되어 "인간공학과", "제품디자인공학과"로 변경되었습니다.
+위 정보를 바탕으로 2024년 신설된 학과는 "심리학과"와 "스마트항만물류학과"이며, "창업투자경영학과"도 신설되었다고 답변드립니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에서는 서류 70%, 면접 30%라는 구체적인 비율이 명시되어 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형요소 반영비율에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없으며, 전형요소 반영비율에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6242664942401368</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 정보가 없습니다. 다른 전형방법이나 전형군에 대한 정보는 있지만, 특정 전형방법의 세부적인 반영비율은 포함되어 있지 않습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 공식 문서나 안내사항을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 수능 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 상경대학의 여러 학과를 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 학과별 지원 인원과 경쟁률을 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 그러나 내부적으로는 구조가 잘 잡혀 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 잘못되어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7499769014019965</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과로는 상경대학의 경영학과, 회계학과, 경영정보학과, e비즈니스학과, 국제관광경영학과, 호텔·컨벤션경영학과, 외식경영학과가 있습니다. 각 학과별 지원 인원과 경쟁률은 다음과 같습니다:
+1. **경영학과**
+   - 지원 인원: 65명
+   - 경쟁률: 4.33
+2. **회계학과**
+   - 지원 인원: 42명
+   - 경쟁률: 2.00
+3. **경영정보학과**
+   - 지원 인원: 95명
+   - 경쟁률: 10.56
+4. **e비즈니스학과**
+   - 지원 인원: 89명
+   - 경쟁률: 8.90
+5. **국제관광경영학과**
+   - 지원 인원: 26명
+   - 경쟁률: 1.73
+6. **호텔·컨벤션경영학과**
+   - 지원 인원: 9명
+   - 경쟁률: 1.50
+7. **외식경영학과**
+   - 지원 인원: 29명
+   - 경쟁률: 4.83
+이들 학과는 수능 점수를 포함하여 총점에 가산점을 주어 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 성적이 100% 반영된다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 성적 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.8035822694940805</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 전 모집단위에 대해 수능 성적이 100%로 반영됩니다. 
+다군 수능(일반학생전형) 전형요소 반영비율을 참조하면, 다음과 같이 수능 성적을 반영합니다:
+- **수능**: 100%
+따라서 가군에서 지원하는 학생들은 해당 모집단위의 수능 성적이 최종 합격 결정에 가장 큰 비중을 차지하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 실기고사의 날짜를 정확하게 언급하고 있으며, 추가 정보도 제공하고 있습니다. 그러나 레저스포츠학과와 태권도학과에서 실시된다는 정보는 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 날짜와 일치하지만, 추가 정보가 포함되어 있어 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 특정 학과에 대한 언급은 원본 텍스트에 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 날짜와 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 날짜와 관련된 정보는 정확하지만, 특정 학과에 대한 언급은 원본 텍스트에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 보이며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가 정보가 원본 텍스트의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가 정보가 다소 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7268036444299806</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024. 01. 16.(화)입니다.
+추가 정보:
+- 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+- 자세한 일정은 "전형일정" 섹션을 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특정 모집단위가 제외되었다는 사실을 부정하고 있으며, 제공된 정보에 대한 정확한 내용을 반영하지 않고 있습니다. 원문에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답은 이를 전혀 언급하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있습니다. 원문에서 제외된 모집단위가 명확히 언급되었음에도 불구하고, 생성된 응답은 그러한 정보를 부정하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원문에서 언급된 모집단위의 제외에 대한 정보가 없다는 것은 원문과의 관련성을 약화시킵니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 완전히 왜곡하고 있으며, 정확성이 전혀 없습니다. 원문에서 명시된 내용을 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않습니다. 원문에서 제공된 정보와 상반되는 내용을 포함하고 있어 의미의 일관성이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용의 부정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어집니다. 정보가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.542576263023281</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형)에서 특별히 제외된 모집단위는 주어지지 않았습니다. 제공된 정보에 따르면, 전형료와 지원 자격 등은 전 모집단위에 대해 동일하게 적용되고 있습니다.
+만약 특정 모집단위가 제외되었거나 예외적인 상황이 있다면, 더 구체적인 정보를 확인하기 위해 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8625612727086324</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 전형요소 반영비율에서 수능의 비중이 100%이며, 수능최저기준이 없음을 확인할 수 있습니다.
+따라서, 수능 최저 기준은 해당 전형에 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8709262101362392</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+위와 같이 2024학년도 동의대학교에서는 여러 학과가 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 정확하게 언급하고 있으며, 추가적인 정보(인터넷 접수 및 입학 안내 홈페이지)도 포함되어 있습니다. 그러나 "2024년 1월 6일(토)까지입니다"라는 표현은 마감 시간을 명확히 하지 않아 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간을 정확히 반영하고 있습니다. 추가 정보는 원본 텍스트에 포함되어 있지 않지만, 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련된 정보를 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 마감일과 시간에 대한 정보는 정확하지만, "2024년 1월 6일(토)까지입니다"라는 표현이 마감 시간을 명확히 하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7849136759246755</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 18시까지이며, 원서접수는 인터넷을 통해 진행할 수 있습니다. 자세한 일정과 기타 정보는 입학 안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 학과 명칭 변경에 대한 내용을 담고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 비해 높은 점수를 주기는 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6273155387012703</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **아동학과** - 보육·가정상담학과로 변경되었습니다.
+2. **금융경영학과** - 경제금융보험학과로 변경되었습니다.
+3. **경영정보학과, e비즈니스학과** - 정보경영학부(경영정보학, e비즈니스학)에서 분리되었습니다.
+4. **부동산자산경영학부(부동산투자학, 부동산개발경영학)** - 부동산금융·자산경영학과로 변경되었습니다.
+5. **기계공학과, 로봇자동화공학과, 자동차공학과** - 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학)에서 분리되었습니다.
+6. **신소재공학과, 고분자나노공학과** - 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학)에서 분리되었습니다.
+7. **건축학과(5년제), 건축공학과, 토목공학과, 도시공학과** - 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학)에서 분리되었습니다.
+8. **화학공학과, 환경공학과, 응용화학과** - 화학환경공학부(화학공학, 환경공학, 응용화학)에서 분리되었습니다.
+9. **의생명공학과, 바이오의약공학과, 식품공학과** - 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학)에서 분리되었습니다.
+10. **인간공학과, 제품디자인공학과** - 디자인공학부(인간·시스템디자인공학, 제품디자인공학)에서 분리되었습니다.
+11. **산업경영빅데이터공학과** - 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학)에서 분리되었습니다.
+12. **소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)** - 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)에서 분리되었습니다.
+13. **음악학과(클래식, 실용음악, 뉴미디어작곡)** - 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡)에서 분리되었습니다.
+14. **심리학과** - 신설되었습니다.
+15. **스마트항만물류학과** - 신설되었습니다.
+16. **창업투자경영학과** - 신설되었습니다.
+이러한 변화는 학과의 구조와 전공 명칭을 반영하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기 비중에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 70%라는 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 실기 비중이 70%라고 명확히 언급하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 실기 비중에 대한 직접적인 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기 비중에 대한 정확한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 정보의 부재로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 정보의 부족으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6937153236794603</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에 대한 실기 비중 정보는 제공된 자료에서 확인할 수 없습니다. 추가적인 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 주세요. 해당 사이트에서는 각 모집단위별 실기 비중과 기타 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 라이프융합학부가 2024학년도에 신설되지 않았다고 주장하지만, 원본 텍스트에 따르면 라이프융합학부의 세부 전공이 명시되어 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 라이프융합학부의 존재 여부에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 다른 학과에 대한 정보로 대체하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결되어 있지만, 주제와 관련된 정보가 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 관련성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 부분이 있지만, 주제와 관련된 정보가 부족하여 전체적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.6582186627132345</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설되는 학과는 '심리학과'와 '스마트항만물류학과', '창업투자경영학과'입니다. 하지만 질문하신 '라이프융합학부'는 2023년도까지 존재하였던 학부로, 2024년에는 신설되지 않았습니다.
+따라서, 동의대학교 2024학년도에 신설된 학과 중 라이프융합학부의 세부 전공 구성은 해당하지 않습니다. 만약 다른 신설된 학과의 세부 전공 구성에 대한 정보가 필요하시다면, 관련 정보를 제공해 드리겠습니다.
+위에서 언급한 '심리학과'는 2024년도에 신설되었으며, 현재까지 세부 전공 구성은 다음과 같습니다:
+- 심리학과
+이처럼, 동의대학교 2024학년도에는 '심리학과', '스마트항만물류학과', '창업투자경영학과'가 신설되었으나, 라이프융합학부는 그 구성이 없습니다. 더 자세한 정보를 원하시면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'가 언급되지 않았습니다. 또한, 실기고사 날짜에 대한 정보도 원본 텍스트에 포함되어 있지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '태권도학과'라는 정보가 추가되어 있어 일관성이 없습니다. 원본 텍스트의 내용과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 가지지 않습니다. '태권도학과'에 대한 언급은 원본 텍스트와 관련이 없습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽기 쉬운 문장 구조를 가지고 있지만, 중간에 다른 언어(중국어)가 포함되어 있어 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 일관된 논리적 흐름이 부족합니다. 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. '태권도학과'와 실기고사 날짜에 대한 정보는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히, 잘못된 학과명과 언어 혼합이 의미 전달에 방해가 됩니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 이해하기 어렵습니다. 원본 텍스트의 내용을 명확하게 전달하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6157405854655688</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다. 
+- 레저스포츠학과의 실기고사는 2024년 1월 16일(화)에 진행됩니다.
+- 태권도학과의 실기고사는同样是韩语，以下是翻译：
+- 娱乐体育学和跆拳道学的实操考试分别在2024年1月16日（星期二）和2024年1月17日（星期三）进行。
+因此，参加实操考试的学科有娱乐体育学和跆拳道学。</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있으며, 지원 가능한 학과 목록을 포함하고 있습니다. 그러나 '경기실적우수자전형'이라는 용어는 원문에 명시되어 있지 않으며, 제공된 학과 목록이 원문과 약간 다릅니다. 따라서 완전한 정확성은 없지만, 전반적으로 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, '경기실적우수자전형'이라는 새로운 용어를 도입함으로써 일관성이 떨어집니다. 또한, 원문에 있는 '경기지도학과'가 누락되어 있습니다. 이러한 점에서 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 실기/실적 위주 전형에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으나, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '경기실적우수자전형'이라는 용어가 추가됨으로써 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 일부 정보가 누락되거나 추가된 점에서 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 그러나 새로운 용어의 도입이 약간의 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 복잡할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6673282709095241</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 대해 모집합니다. 현재 제공된 정보를 바탕으로, 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 디자인조형학과
+2. 체육학과
+3. 레저스포츠학과
+4. 태권도학과
+하지만 이 정보가 완전한 목록을 반영하고 있지는 않을 수 있습니다. 2024학년도 동의대학교의 정확한 모집 단위와 학과에 대한 자세한 정보는 공식 웹사이트를 참조하시거나, 대학 입학처에 문의하시는 것이 가장 정확할 것입니다.
+[참고 링크: https://ipsi. deu. ac. kr/main. do]</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 전공을 정확하게 나열하고 있지만, "스타트업창업투자학"이 "스마트업창업투자학"으로 잘못 표기되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트의 전공 목록과 일치하지만, "스마트업창업투자학"이라는 잘못된 용어 사용으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 유창하게 작성되었으나, "스마트업창업투자학"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 정보가 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록의 대부분은 정확하지만, 하나의 전공명이 잘못 기재되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 하나의 부정확성이 전체 점수에 영향을 미쳤습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 원본 텍스트와 잘 일치하지만, 잘못된 전공명 사용으로 인해 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 전공명으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7602435428228846</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 현재 제공되고 있는 전공들로, 추가적인 변경사항은 공식 웹사이트를 참조하시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 마이스터고에 대한 정보가 잘못 전달되었습니다. 마이스터고는 농어촌학생전형에서 제외된다고 명시되어 있으나, 생성된 응답에서는 마이스터고도 모든 전형에 지원 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일관성을 유지하고 있으나, 마이스터고에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 원문과의 불일치로 인해 전체적인 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 일반학생전형에 대한 지원 가능성에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 마이스터고에 대한 잘못된 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 마이스터고에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 원문과의 불일치가 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 마이스터고에 대한 잘못된 정보가 의미적 적합성을 약간 저해합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 다만, 마이스터고에 대한 잘못된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7365188047597738</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>당신이 특수목적고등학교(예를 들어 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고) 학생이라면 동의대학교 일반학생전형으로 지원 가능합니다. 
+특히, 다음과 같은 분야에서는 지원이 가능합니다:
+- 과학고, 국제고, 외국어고: 모든 전형에 지원 가능
+- 예술고, 체육고: 모든 전형에 지원 가능
+- 마이스터고: 모든 전형에 지원 가능
+하지만, 각 전형별로 세부적인 지원 자격 조건이 다르므로, 동의대학교의 공식 웹사이트를 확인하여 자세한 내용을 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 잘못된 정보를 제공합니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시하고 있지만, 생성된 응답은 미디어커뮤니케이션학과와 재무부동산학과를 언급하며 모집 인원에 대한 잘못된 해석을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 명확히 언급된 학과와 모집 인원에 대한 내용과 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보와 불필요한 추가 설명이 포함되어 있어 원문에서 요구하는 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주제와의 관련성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 잘못된 학과명과 모집 인원에 대한 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 맥락을 잘못 해석하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉽고 이해할 수 있는 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.60557835172478</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 단순히 최대선발 가능 인원만으로 판단하면, "미디어커뮤니케이션학과"와 "재무부동산학과"가 각각 1명과 3명을 모집하며 상당한 수치입니다. 그러나 정확한 결론을 내리기 위해서는 전체 모집인원을 고려해야 합니다.
+현재 제공된 정보로는 가장 많은 인원을 모집하는 학과를 단정하기 어렵습니다. 더 자세한 정보와 전체 모집인원을 확인하시거나, 공식 홈페이지(https://ipsi. deu. ac. kr/main. do)에서 최신 정보를 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대하는 내용을 담고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특수목적고 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원할 수 있다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본의 내용을 왜곡하여 일관성을 잃었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6916967771350073</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형을 통해 지원할 수 있습니다. 
+특히, "농어촌 학생" 전형에 지원하려면 다음과 같은 조건을 충족해야 합니다:
+- 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고), 특성화고, 영재학교, 기타 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 등에서 졸업하거나 재학 중인 경우입니다.
+따라서, 특수목적고등학교(예: 과학고, 국제고, 외국어고) 학생이더라도 해당 전형을 통해 지원할 수 있습니다. 다만, 특정 모집단위에 따라 추가적인 자격 요건이나 제한 사항이 있을 수 있으므로, 정확한 자격 요건은 동의대학교 입학처 웹사이트나 직접 문의하여 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 허위 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 담고 있습니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 성적 정보를 제공하여 주제와 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비일관성이 있어 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6163758652141664</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이러한 정보를 바탕으로, 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문이 제공하는 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5653954529641803</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자 평균 성적은 **317.87**입니다. 이는 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"에서 제공된 평균 값에 해당합니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 같은 추가적인 세부사항이 포함되어 있어 원본 텍스트와 다소 차이가 있습니다. 원본 텍스트에는 최초 합격자 등록 일정이 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가적인 내용이 포함되어 있어 일관성이 떨어집니다. 특히 최초 합격자 등록에 대한 정보는 원본 텍스트에 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 세부사항이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보가 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 원본 텍스트와의 차이로 인해 일부 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.814922870297912</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**:
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. **최초 합격자 등록**:
+   - **일정**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - **시간**: 은행 마감 시간 내
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. **충원 합격자 발표 및 등록**:
+   - **1차 충원 합격자 발표**:
+     - **일정**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **1차 충원 합격자 등록**:
+     - **일정**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 충원 합격자 발표**:
+     - **일정**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 충원 합격자 등록**:
+     - **일정**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **3차 이후 충원 합격자 발표**:
+     - **일정**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 안내를 하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 일정과 일치하지 않으며, 일반적인 정보로 대체하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 관련성이 있지만, 원본 텍스트의 구체적인 날짜를 제공하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약해 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 중요한 세부사항이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트의 구체적인 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3616338101166616</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>면접고사의 일정은 대체로 입학사정관이 평가하는 날짜에 맞춰 진행됩니다. 정확한 날짜와 시간은 입학처에서 공지하거나 개별적으로 안내해 주실 것입니다. 따라서 면접일정을 확인하기 위해서는 본교의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, "수능최저기준 없음"이라는 정보를 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5747027466253322</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 수능최저기준은 "수능최저기준 없음"이라고 명시되어 있습니다. 따라서, 한의예과에 대한 최저학력 기준은 수능 점수가 필요하지 않습니다.
+만약 추가적인 정보가 필요하시거나 확인이 필요한 경우에는 공식 웹사이트를 참조해보시는 것이 좋습니다: https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 부정확하게 해석하고 있습니다. 응답에서는 특정 단과대학이나 모집단위별로 기준이 없다고 언급하고 있지만, 동의대학교 전체에 대해 수능 최저학력 기준이 없다는 점을 명확히 하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 동의대학교에 수능 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 각 학교에서 설정한 기준이 적용된다고 언급하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저학력 기준에 대한 질문에 관련된 정보를 제공하고 있지만, 동의대학교의 구체적인 상황에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 수능 최저학력 기준에 대한 설명이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 사실을 잘못 전달하고 있습니다. 원본 텍스트와의 불일치로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 동의대학교의 수능 최저학력 기준에 대한 명확한 설명이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해하기 어려운 부분이 있으며, 특히 수능 최저학력 기준에 대한 설명이 모호하여 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5363157303510533</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 명시하고 있지 않습니다. 정시 전형의 경우, 대체적으로 각 학교에서 설정한 수능 최저학력 기준이 적용되는데, 이는 일반적으로 해당 학교가 선정하는 입학생들의 평균 성적과 관련이 있습니다.
+만약 특정 단과대학이나 모집단위에 대한 수능 최저학력 기준을 알고 싶다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 해당 대학의 입학처로 문의하는 것이 가장 정확한 정보를 얻는 방법입니다.
+또한, 지원하고자 하는 단과대학이나 모집단위에 대한 자세한 내용은 제공된 JSON 데이터에서 찾아보시거나, 대학 입학 홈페이지를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 및 2차 충원 합격자 발표 일정은 정확하게 반영하고 있지만, "1차 충원 합격자 등록"과 "2차 충원 합격자 등록"에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, "이후에는 개별 전화 통보를 통해 발표가 이루어집니다."라는 내용도 원본에 없는 정보입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하는 부분이 있지만, 추가된 정보(등록 시간 및 개별 전화 통보)는 원본과 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 다루고 있지만, 추가된 정보가 원본과 관련이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 잘 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있지만, 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 일부 포함하고 있지만, 잘못된 정보(등록 시간 및 개별 전화 통보)가 포함되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 혼합되어 있으며, 사실성과 일관성에서 낮은 점수를 받았지만 유창성과 관련성에서 상대적으로 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 추가된 정보가 원본의 맥락과 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9345759995298318</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+- **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+- **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00~16:00
+이후에는 개별 전화 통보를 통해 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하는 대신, 해당 정보가 문서에 명시되어 있지 않다고 주장하고 있습니다. 이는 사실과 다르며, 원본 텍스트의 내용을 완전히 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 발표 일정을 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 원본 텍스트는 발표 일정에 대한 정보를 제공하고 있지만, 생성된 응답은 그와 관련된 정보를 제공하지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없기 때문에 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4449098640250146</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표에 대한 정보가 제공된 문서에서는 명시되어 있지 않습니다. 추가합격자 발표일정이 변경되었거나, 새로운 정보가 추가될 수 있으므로, 공식 홈페이지인 "https://ipsi.deu.ac.kr/main.do"를 방문하여 최신 정보를 확인해주세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 명확한 내용이 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명시하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 추가 모집 여부에 대한 혼란을 초래할 수 있는 정보가 포함되어 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명확히 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가 모집에 대한 잘못된 해석으로 인해 일부 정보가 부정확하게 전달되고 있습니다. 그러나 웹사이트를 방문하라는 제안은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 모호하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 약해 보이며, 추가 모집에 대한 정보가 명확하지 않아 일관성이 떨어집니다. 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 추가 모집이 이루어진다는 사실을 간과하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 추가 모집에 대한 잘못된 해석으로 인해 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.515107644476012</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 보면, 추가 모집에 대한 명확한 내용은 없습니다. 각 모집단위별 정원 내 모집 인원이 주어졌지만, 추가 모집 여부는 직접적으로 언급되지 않았습니다.
+추가 모집을 하는지 확인하려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하는 것이 좋겠습니다. 해당 사이트에서 공식적인 추가 모집 안내나 변경 사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 모집 인원, 모집 단위, 지원 자격 등에서 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 예를 들어, 원본 텍스트에서는 모집 인원이 11명으로 명시되어 있지만, 생성된 응답에서는 23명으로 잘못 기재되어 있습니다. 또한, 모집 단위와 전형명도 원본과 다릅니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일관성이 없습니다. 모집 인원, 모집 단위, 전형명 등에서 서로 다른 정보를 제공하고 있어 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 원본 텍스트의 세부 사항을 반영하지 않고 일반적인 정보만을 제공하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주제와의 관련성이 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집 인원, 전형명, 지원 자격 등에서 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 심각하여 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않는 내용이 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6563061824618062</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. **모집 인원**: 총 모집 인원은 23명입니다.
+2. **단과대학 및 계열**: 미래융합대학의 인문사회계열에 해당합니다.
+3. **모집 단위**: 부동산자산경영학부(부동산투자학, 부동산개발경영학)를 대상으로 모집합니다.
+4. **전형명**:
+   - 학생부종합(성인학습자(정원내)전형): 7명 모집
+   - 학생부종합(성인학습자(정원외)전형): 17명 모집
+   - 학생부종합(재직자전형): 7명 모집
+5. **지원 자격**:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법에 따른 사업체 등이 해당됩니다.
+   - 재직 기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다.
+6. **전형 요소 반영 비율**:
+   - 서류: 70%
+   - 면접: 30%
+7. **제출 서류**:
+   - 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자 등에 따라 다르게 제출해야 합니다.
+8. **서류 평가 영역 및 배점**:
+   - 공동체역량: 140~98점
+   - 학업역량: 280~196점
+   - 전공적합성: 280~196점
+9. **면접 평가 영역 및 배점**:
+   - 학업역량: 문제해결능력 평가, 180~126점
+   - 전공적합성: 진로정보 탐색능력 평가, 120~84점
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해를 높일 수 있을 것입니다. 더 궁금하신 점이 있으시다면 추가 정보를 제공해 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 간단한 자격 요건을 제시하고 있지만, 생성된 응답은 전혀 다른 조건을 나열하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 자격 요건과 생성된 응답의 내용은 서로 관련이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 조건을 나열하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6129649232879982</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024년도에 평생학습자전형 지원 자격은 다음과 같습니다:
+1. 국가 또는 지방자치단체 및 공공단체 소속 직원이거나, 근로기준법 제11조에 따라 상시근로자인 경우 (5인 이상 사업체)
+2. 4대 보험 중 하나 이상 가입된 사업체에서 재직하는 경우
+3. 2024년 3월 1일 기준으로 총 재직기간이 3년 이상인 경우
+또한, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가 또는 지방자치단체가 발급하는 공적증명서를 통해 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌 입학사정관 면접에 대한 내용을 다루고 있습니다. 따라서 원본 텍스트의 사실과는 전혀 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사에 대한 질문에 대해 전혀 답변하지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보로 가득 차 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4499457210790768</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2024학년도에 실시되는 학과와 관련된 입학사정관 면접은 "개별면접" 형식으로 진행됩니다. 개별면접은 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가를 합니다.
+면접 시간은 1인당 10분 이내로 짧게 이루어집니다. 면접에서는 수험생의 답변 내용을 바탕으로 정성·종합적으로 평가됩니다. 또한, 블라인드 면접 형식으로 진행되므로 개인신상(수험번호, 성명, 출신고교, 부모직업 등) 노출 금지 및 교복 착용 금지가 있습니다.
+면접 절차는 대기실 입실 → 신분 확인 → 고사장 앞 이동 → 고사장 입실 → 지원동기 및 학업계획 발표 → 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 → 기타 질의응답(제출서류 진위 여부 등) → 퇴실 순으로 이루어집니다.
+따라서 실기고사는 개별면접 준비를 하여 면접을 치르게 됩니다. 자세한 내용은 입학처 웹사이트나 학교 입학사정관에게 문의하시면 더 정확한 정보를 얻으실 수 있습니다. https://ipsi. deu. ac. kr/main. do 를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않으며, 일반적인 조언을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 정보는 명확하게 대기실 및 입실시간에 대한 내용을 포함하고 있어, 이 부분에서 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 실기고사에 대한 구체적인 장소가 언급되지 않았기 때문에 일관성이 부족합니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 무시하고 일반적인 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 추가적인 조언을 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 정보에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 정보가 누락되어 있어 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사에 대한 정보가 부족합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 구체적인 정보가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 일반적인 조언을 제공합니다. 그러나 원본 텍스트의 구체적인 정보와는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3988549298307843</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 체육학과의 실기고사에 대한 특정 장소는 언급되어 있지 않습니다. 일반적으로 실기고사는 해당 학과 또는 관련 시설에서 이루어집니다. 자세한 정보를 얻으려면 대학 입학처나 해당 학과 사무실로 문의하시거나, 대학 홈페이지를 확인해 보시는 것이 좋습니다.
+더 구체적인 답변을 위해 "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 체육학과의 실기고사 장소와 관련 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 원문 내용을 완전히 반대하는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주된 질문에 대한 답변이 아닌 추가적인 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 전반적으로는 이해할 수 있는 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정반대의 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있어 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 의미적 적절성이 떨어집니다. 그러나 일부 정보는 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6259261491966546</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 이는 최종 단계이며, 일반적으로 홈페이지에서 개별 조회하고 고지서를 출력하거나 입학관리팀에서 수령하는 과정을 거칩니다.
+발표 일정은 다음과 같습니다:
+- 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+이 기간 동안 홈페이지에서 개별 조회하고, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다. 최종적으로 학교 지정은행에서 등록금을 납부해야 합니다.
+만약 전화 통보를 받고 싶다면, 해당 기관에 문의하여 자세한 정보를 얻으시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 2023학년도 수시모집 결과가 포함되어 있지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 "특별한 내용이 없다"는 표현은 다소 모호할 수 있으며, 원문에서 제공된 정보의 구체성을 완전히 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 경찰행정학과의 수시모집 결과가 포함되어 있지 않다고 언급하고 있습니다. 그러나 "다른 학과의 수시모집 결과"에 대한 언급은 원문에 포함되지 않은 정보로, 약간의 불일치를 나타냅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청된 정보와 직접적으로 관련이 있으며, 수시모집 결과에 대한 질문에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "대구대학교 입학정보 홈페이지"의 URL 표기에서 약간의 공백이 있어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "다른 학과의 수시모집 결과"에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 정확한 내용을 전달하고 있습니다. 그러나 URL의 표기에서 약간의 오류가 있어 완전한 정확성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 불일치와 어색한 표현이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 적절한 맥락을 유지하고 있습니다. 그러나 "특별한 내용이 없다"는 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7862508502457596</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 경찰행정학과에 대한 특별한 내용이 없습니다. 경찰행정학과의 2023학년도 수시모집 결과가 포함되어 있지 않아 확인할 수 없습니다. 
+더 자세한 정보를 얻기 위해서는 대구대학교 입학정보 홈페이지 (http://ipsi. deu. ac. kr) 또는 관련 부서에 직접 문의하시는 것이 좋습니다.
+만약 다른 학과의 수시모집 결과가 궁금하시다면, 해당 학과의 정보를 제공해 주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 특정 전형에서 수능 응시 없이 지원이 가능하다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 핵심 사항인 수능 응시 필수 조건을 무시하고 다른 전형에 대한 정보를 제공하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 약해 논리적 흐름이 다소 부족합니다. 원문과의 관계를 명확히 하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 수능 응시가 필수라는 사실을 왜곡하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 다른 의미를 전달하고 있으며, 원문의 맥락과 일치하지 않는 정보가 포함되어 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5407480476089397</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지원 가능한 전형 중 일부는 수능을 응시하지 않아도 지원이 가능합니다. 예를 들어, 학생부종합전형과 실기/실적 위주전형인 '경기실적우수자전형'은 수능을 응시하지 않아도 지원할 수 있습니다.
+특히, 2024학년도에 신설된 '학생부종합(평생학습자전형)'은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로만 지원이 가능하며, 수능 응시 여부와 관계 없이 지원할 수 있습니다.
+또한, '학생부종합(성인학습자(정원내)전형)'은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자만 지원이 가능하므로 수능 응시 여부와 관계 없이 지원할 수 있습니다.
+따라서, 정시모집에서 수능을 응시하지 않아도 특정 전형에서는 지원이 가능합니다. 하지만 일반적으로는 수능 응시가 필수일 수 있으니, 구체적인 전형의 지원 자격과 조건을 확인하시기 바랍니다. 더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 언급하고 있으며, 이는 원문과 일치합니다. 그러나 각 대학마다 다른 입학 제한 조건이 있을 수 있다는 점은 원문에서 명시되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "학생부교과 전형과는 다르다"는 언급은 원문에서 다루지 않은 내용으로, 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대체로 정확하지만, 각 대학의 입학 제한 조건에 대한 언급은 원문에 포함되지 않은 정보입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되었으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 추가된 정보가 원문과의 맥락에서 다소 어색할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.571485839619348</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>정시 모집은 학생부교과 전형과는 다르므로, 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하시거나 직접 문의하시는 것이 좋습니다. 일반적으로 고등학교 졸업 후 10년이 지났다면 정시 모집에 지원하는 것은 가능하지만, 각 대학마다 다른 입학 제한 조건이 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실적 내용을 정확하게 반영하고 있습니다. 일정, 비고, 제출 방법 등 모든 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7834412257812255</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 마감일은 18시까지
+   - 접수 사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 마감일은 17시까지 도착
+   - 접수 방법: 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)** (2024. 01. 16.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12. 14:00 이후에 입학안내 홈페이지에서 확인
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)** (2024. 01. 17.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12. 14:00 이후에 입학안내 홈페이지에서 확인
+6. **합격자 발표 및 등록금 납부** (2024. 02. 02.)
+   - 최초 합격자 발표
+   - 홈페이지에서 개별 조회 가능
+   - 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령
+7. **합격자 발표 및 등록금 납부** (2024. 02. 07. ~ 02. 13.)
+   - 최초 합격자 등록
+   - 등록장소는 학교 지정은행
+8. **충원 합격자 발표 및 등록** (2024. 02. 14.)
+   - 1차 충원 합격자 발표 및 등록
+   - 2차 충원 합격자 발표 및 등록
+   - 3차 이후 충원 합격자 발표 및 등록 (개별 전화 통보)
+이 일정은 동의대학교 정시 모집에 대한 일반적인 일정이며, 각 단과대학과 모집단위에 따라 세부적으로 다를 수 있으므로 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.9322122130391509</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 마감일은 18시까지입니다.
+   - 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 마감일은 17시까지 도착해야 합니다.
+   - 서류 제출 대상과 방법에 대한 자세한 내용은 [Ⅳ. 전형별 세부 안내](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)** (2024. 01. 16.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)** (2024. 01. 17.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부** (2024. 02. 02.)
+   - 최초 합격자 발표는 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 각각 14:00에 이루어집니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서 교부도 가능합니다.
+7. **합격자 발표 및 등록금 납부** (2024. 02. 07. ~ 02. 13.)
+   - 학교 지정은행에서 등록금을 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서 교부도 가능합니다.
+8. **합격자 발표 및 등록금 납부** (충원 합격자 1차, 2차)
+   - 충원 합격자는 2024. 02. 14.에 발표됩니다.
+   - 등록은 2024. 02. 15.까지 가능합니다.
+9. **합격자 발표 및 등록금 납부** (충원 합격자 3차 이후)
+   - 충원 합격자는 2024. 02. 15.부터 2024. 02. 20.까지 개별 전화 통보를 통해 발표됩니다.
+   - 등록은 개별 전화 통보 시 안내에 따라 진행합니다.
+이 일정을 참고하여 원서접수와 서류 제출 등을 진행하시면 됩니다. 자세한 내용은 [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장합니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용인 수능 성적 요구 사항과는 반대되는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 정보가 서로 충돌하여 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 수능 미응시자가 지원할 수 있다고 잘못된 정보를 제공합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7305893126734114</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 "평생학습자전형", "성인학습자(정원내·외)전형" 및 "재직자전형"입니다. 이들 전형에서는 학생부와 서류를 통해 평가되며, 수능 점수는 요구되지 않습니다.
+이 전형들의 지원 자격과 서류 제출 내용은 다음과 같습니다:
+1. **평생학습자전형**
+   - 지원 자격: 4대 보험 중 1개 이상 가입 사업체에서 재직한 경력이 있는 성인 학습자
+   - 서류 제출: 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자 등에 따른 서류
+2. **성인학습자(정원내·외)전형**
+   - 지원 자격: 4대 보험 중 1개 이상 가입 사업체에서 재직한 경력이 있는 성인 학습자
+   - 서류 제출: 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자 등에 따른 서류
+3. **재직자전형**
+   - 지원 자격: 4대 보험 중 1개 이상 가입 사업체에서 재직한 경력이 있는 성인 학습자
+   - 서류 제출: 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자 등에 따른 서류
+이러한 전형들은 수능 점수가 아닌 학생부와 서류를 통해 지원자의 역량과 적합성을 평가합니다. 자세한 내용은 동의대학교 입학처 웹사이트에서 확인할 수 있습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 정보를 제공하지 않고 있으며, "2024학년도 데이터만 제공되어 있다"는 내용은 사실과 다릅니다. 원문에서는 전년도 충원 합격이 36명까지 이루어졌다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 전년도 데이터를 확인할 수 없다고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문에서 요구하는 정보와 관련이 있지만, 제공된 정보가 정확하지 않기 때문에 관련성 점수가 낮습니다. 원문에서 요구하는 충원 합격에 대한 정보가 제대로 반영되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 발생하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 어느 정도 적절하지만, 원문과의 불일치로 인해 의미 전달이 제대로 이루어지지 않았습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6230887212789142</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터만 제공되어 있어 전년도 데이터를 확인할 수 없습니다. 전년도 전자공학과의 충원 합격 차수에 대한 정보가 필요하시다면, 해당 정보를 찾기 위해 [https://ipsi.ode.ac.kr/main.do](https://ipsi.ode.ac.kr/main.do) 웹사이트를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에 명확히 제시된 전화번호를 무시하고, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 없다고 주장하고 있습니다. 이는 일관성이 전혀 없는 상태입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호 정보를 무시하고, 웹사이트를 통해 확인하라는 일반적인 조언을 제공합니다. 그러나 원본 텍스트의 핵심 정보인 전화번호에 대한 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 전화번호에 대한 언급이 없기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공합니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 무시하고 잘못된 정보를 제공하기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 전화번호가 없다고 주장하는 것은 원본의 의미와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6879194924580141</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 찾기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트로 접속하여 확인해 보시거나, 직접 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격자로 인정된다고 주장하지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있습니다. 따라서 사실관계에 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있는데, 생성된 응답은 전화 통화가 되지 않아도 합격자로 인정된다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 핵심 사항인 전화 통화가 되지 않을 경우의 처리 방식에 대한 정확한 설명이 부족합니다. 따라서 관련성은 있지만, 핵심 사항을 잘못 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원문과의 연결이 부족하여 논리적 흐름이 다소 약합니다. 원문에서의 핵심 메시지와의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 전화 통화가 되지 않는 경우의 처리에 대한 정보가 잘못 전달되고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성에서 큰 문제를 가지고 있어 전반적인 품질이 낮습니다. 일부 플루언시와 관련성은 있지만, 전반적인 품질은 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 원문의 맥락을 잘못 해석하고 있습니다. 따라서 의미 적합성 점수는 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6202436013800804</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격자로 인정됩니다. 그러나 이 경우에는 일반적으로 다음과 같은 절차를 따릅니다:
+1. **개별 전화 통보 시 안내**: 합격자 발표 및 등록금 납부 일정이 공지되며, 합격자에게 개별 전화 통보가 이루어집니다.
+2. **전화 통화 실패 시 처리**: 만약 전화 통화가 되지 않는 경우, 학교에서는 해당 합격자를 대기 합격자로 분류하고, 다음 일정에 따라 다시 연락을 시도하거나, 홈페이지를 통해 안내를 제공합니다.
+3. **다음 일정 확인**: 합격자는 홈페이지에서 개별적으로 조회하여, 등록금 납부 등의 일정을 확인해야 합니다.
+따라서 전화 통화가 되지 않는 경우에도 합격자로 인정되지만, 이에 대한 안내와 대응은 학교의 공지 및 홈페이지를 통해 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제출해야 할 서류에 대한 주요 정보를 정확하게 반영하고 있지만, "정원외 지원 자는 졸업증명서를 제출해야 하며, 동점자 처리 시에는 면접고사 성적을 참고합니다."라는 부분은 원본 텍스트에 명시되어 있지 않은 정보입니다. 따라서 일부 정보가 추가되었으나, 전반적으로 정확한 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 "정원외 지원 자는 졸업증명서를 제출해야 하며"라는 문구는 원본에 없으므로 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 전반적으로 정확한 정보를 제공하고 있으나, 추가된 정보가 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 추가로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않기 때문에 완전한 적합성은 다소 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.773181292371051</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+   - 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+위와 같은 서류를 준비하여 제출해야 합니다. 추가로, 정원외 지원 자는 졸업증명서를 제출해야 하며, 동점자 처리 시에는 면접고사 성적을 참고합니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 정보가 원본 텍스트에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 추가된 정보가 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.83974040119657</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류들은 지원자의 초등학교부터 고등학교까지의 전 과정을 농어촌 지역 소재 학교에서 이수하고 거주하였음을 증명하기 위함입니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "저소득 기회균등 전형"이라는 표현이 다소 모호하게 사용되어, 원문에서 명확히 언급된 "기회균등 전형"과의 일관성이 떨어질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "저소득 기회균등 전형"이라는 표현이 원문에 명시된 내용과 다소 상충할 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 질문에 대한 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 중간에 중국어가 포함되어 있어 한국어 문맥에서 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 중국어 부분이 포함되어 있어 전체적인 일관성에 약간의 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "저소득 기회균등 전형"이라는 표현이 원문에 명시된 내용과 완전히 일치하지 않기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 표현에서의 모호함과 중국어 사용으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있지만, "저소득 기회균등 전형"이라는 표현이 원문과의 의미적 일치를 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중국어 부분이 포함되어 있어 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5978392264164273</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 저소득 기회균등 전형에 대한 내용이 없습니다.因此，关于是否在正选招生中不录取来自低收入家庭的机会均等类型的学生，根据提供的信息无法回答。如果您需要这方面的详细信息，请访问“https://ipsi.deu.ac.kr/main.do”以获取最新和最准确的数据。
+따라서 제공된 정보에 따르면 정시 모집에서 저소득 기회균등 전형에 대한 내용이 없어 이에 대한 답변을 드릴 수 없습니다. 최신 및 가장 정확한 정보를 얻으려면 “https://ipsi.deu.ac.kr/main.do”를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5등급이 절사되지 않고 그대로 평가된다고 주장하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 언급된 정보와 일치하지 않으며, 원문이 제공하는 정보와 모순되는 내용을 포함하고 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하지만, 원문에서 요구하는 구체적인 절사 여부에 대한 정보는 포함되어 있지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 특히, 점수표와 관련된 정보가 원문 질문과의 연관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 절사 여부에 대한 정보를 제공하지 않는데, 생성된 응답은 이를 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원문과의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 내용이 포함되어 있어 의미적 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관계가 불명확하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6500217504812923</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>4등급을 기준으로 한 수능 최저등급에서 사탐 2과목의 평균산출은 2.5등급이 나오더라도 절사(절단)하지 않고 그대로 2.5등급으로 보는 것으로 이해됩니다.
+수능 영어영역 등급에 따른 점수표를 보면:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점
+따라서, 사탐 2과목의 평균산출이 2.5등급이라면 그대로 115점을 받게 됩니다.
+만약 특정 모집단위에서 수능 최저등급을 설정하고 있다면, 해당 등급에 따른 점수를 기준으로 평가하게 됩니다. 따라서 2.5등급은 115점으로 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 발표가 총 4차로 이루어진다고 잘못 언급하고 있으며, 3차 이후의 발표 일정에 대한 정보도 정확하지 않습니다. 원본 텍스트에서는 3차 발표 이후에 개별 전화 통보로 진행된다고 명시되어 있지만, 생성된 응답에서는 3차 이후의 발표 및 등록이 개별 전화 통보를 통해 이루어진다고만 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3차까지의 발표를 명확히 언급하고 있지만, 생성된 응답은 4차 발표를 언급하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 일부 내용이 왜곡되었습니다. 그러나 발표 일정과 관련된 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 4차 발표에 대한 언급이 원본 텍스트와의 연결을 약화시킵니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 발표 차수에 대한 정보가 부정확하며, 원본 텍스트의 사실과 일치하지 않습니다. 4차 발표에 대한 언급은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성에서 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8258874570300244</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 발표**: 2024년 2월 14일 (수) 09:00
+2. **1차 등록**: 2024년 2월 14일 (수) 09:00~16:00
+3. **2차 발표**: 2024년 2월 15일 (목) 09:00
+4. **2차 등록**: 2024년 2월 15일 (목) 09:00~16:00
+이후에는 3차 이후의 합격자 발표 및 등록이 개별 전화 통보를 통해 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 e-비즈니스학과가 신설되지 않았다고 주장하지만, 원본 텍스트에서는 해당 학과의 수능 성적 기준에 대한 정보가 제공되고 있습니다. 이는 사실과 다르며, 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 e-비즈니스학과의 성적 기준에 대한 정보를 제공하는 반면, 생성된 응답은 해당 학과가 존재하지 않는다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 e-비즈니스학과에 대한 정보가 없다고 주장하지만, 원본 텍스트는 해당 학과의 성적 기준에 대한 정보를 제공합니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, e-비즈니스학과의 존재 여부에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.4076206874326974</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과가 신설되지 않았으며, 현재 정보로는 해당 학과에 대한 모집이 없습니다. 따라서 e비즈니스학과의 수능 성적 기준을 통해 정시 전형으로 추가 합격 여부를 판단하기 어렵습니다.
+제공된 데이터 중에서 가장 가까운 관련 정보는 "ICT융합공과대학" 내의 학과들입니다. 예를 들어, "산업경영빅데이터공학과"와 같은 분야의 학과들이 있습니다. 이들 학과들의 수능 평균 점수와 경쟁률을 참고할 수 있을 것입니다.
+만약 e비즈니스학과에 대한 추가 정보가 필요하다면, 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 관련된 정보를 포함하고 있지만, 수능 4개 영역의 평균 점수에 대한 계산이 정확하지 않으며, 원본 텍스트의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 경쟁률과 지원 인원에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 주제와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 정보를 제공하고 있으며, 정시 등급 5.3에 대한 합격 가능성을 논의하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 순차적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답의 수능 4개 영역 평균 점수 계산이 정확하지 않으며, 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 따라서 정확성 점수는 중간 수준으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 추가되어 있어 원본의 의도를 완전히 반영하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6860181417174867</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과에 대해 다음과 같은 정보를 바탕으로 분석해볼 수 있습니다.
+- **모집 단위**: 전 모집단위
+- **지원 인원**: 180명 (대략적인 지원 인원)
+- **경쟁률**: 평균적으로는 2:1 정도의 경쟁률을 보입니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 305.48
+  - 표준 편차: 10.67
+이 정보를 바탕으로, 정시 등급 5.3을 가정하면 수능 4개 영역의 평균 점수는 대략 4.95 정도가 됩니다 (등급과 점수 변환은 정확한 데이터에 따라 약간 다를 수 있습니다).
+- **수능 4개 영역 등급**:
+  - 평균: 4.95
+  - 표준 편차: 0.21
+이제 이 정보를 바탕으로 최초 합격 가능성을 판단해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 305.48
+  - 표준 편차: 10.67
+정시 등급 5.3을 가정하면, 수능 4개 영역의 평균 점수가 4.95로, 이는 표준 변환 점수에서 약 280-290 정도를 의미합니다 (표준 편차와 평균을 고려한 추정치).
+따라서, 정시 등급 5.3을 가진 학생이 e비즈니스학과에 최초 합격 가능성은 높지 않을 것으로 보입니다. 대략적인 경쟁률을 고려하면, 평균 점수보다 약간 낮은 수준의 점수가 필요할 것으로 예상됩니다.
+만약 정확한 데이터가 필요하다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시는 것이 좋습니다. 해당 사이트에서는 최신 정보와 자세한 분석을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 충원합격 가능성에 대한 구체적인 정보를 제공하지 않고, 모집인원이나 전형요소에 대한 정보가 없다고 언급하고 있습니다. 그러나 원본 텍스트에서는 예비 38번의 경우 충원합격 가능성이 낮다고 명확히 언급하고 있어, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 예비 38번의 충원합격 가능성에 대한 명확한 언급이 없기 때문에 일관성이 부족합니다. 원본 텍스트의 주장을 명확히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학 전공에 대한 추가 정보를 요청하는 내용으로, 원본 텍스트와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 충원합격 가능성에 대한 직접적인 답변이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 문장들로 구성되어 있으며, 주제가 일관되게 유지되고 있습니다. 그러나 원본 텍스트의 핵심 주제를 명확히 반영하지 못한 점에서 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 못하고 있으며, 예비 38번의 충원합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성, 일관성, 정확성에서 부족함이 있습니다. 그러나 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 적절하게 부합하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 명확히 반영하지 못한 점에서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5427195861209559</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 e비즈니스학 전공에 대한 모집인원이나 전형요소 등이 없기 때문에 정확한 답변을 드리기 어렵습니다. 
+e비즈니스학 전공과 관련된 자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시거나, 대학 입학처에 직접 문의하시면 더 정확한 답변을 받으실 수 있습니다.
+특히, 모집인원, 전형요소 반영비율, 동점자 처리기준 등은 각 전공별로 다르므로 확인이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.44라는 성적이 간호학과에 합격 가능성을 높인다고 주장하지만, 원문에서는 3.44의 성적이 간호학과에 합격하기 어려울 수 있다고 명시하고 있습니다. 이로 인해 사실관계가 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공합니다. 원문에서는 3.44의 성적이 간호학과에 합격하기 어려울 수 있다고 언급했으나, 생성된 응답은 합격 가능성을 높인다고 주장합니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제시된 평균 성적과 비교하여 합격 가능성을 논의하는 부분이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 특히, 합격 가능성에 대한 주장이 원문과 상충하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상반된 주장을 하고 있어 정확성이 떨어집니다. 3.44의 성적이 합격 가능성을 높인다는 주장은 원문과 모순됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 상충으로 인해 전체적인 의미 전달이 부족합니다. 특히, 합격 가능성에 대한 주장이 원문과 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5840310543111241</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격 가능성을 높이게 도와드릴 수 있습니다.
+간호학과는 정시 모집군 가군, 나군에서 지원할 수 있으며, 각각의 전형 요소 반영 비율을 고려해야 합니다. 2024년도 동의대학교 간호학과의 학생부종합 평가 영역은 "공동체역량 ㅣ 학업역량 ㅣ 전공적합성"입니다.
+3.44이라는 성적이 3등급에 해당합니다. 따라서, 진로선택 과목에서 좋은 성적을 받았다면 합격 가능성은 높아질 수 있습니다. 특히, 간호학과와 관련된 진로선택 과목에서 높은 점수를 받는 것이 유리할 것입니다.
+추가적으로, 동의대학교에서는 농어촌 학생 지원을 위한 특별한 정원이 있으므로, 해당 지역에 거주하고 있는 경우에도 고려해보시기 바랍니다.
+만약 더 자세한 정보나 조언이 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해 보시거나 동의대학교 입학처에 문의해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 영어 등급을 1.86으로 제시하고 있으며, 이는 원본 텍스트의 정보와 상충합니다. 원본 텍스트에서는 평균 영어 등급이 2.34라고 명시되어 있습니다. 또한, 정시 성적이 2.52인 경우 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 가능성이 낮다고 판단하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트는 2.52의 성적이 평균보다 높다고 하였으나, 생성된 응답에서는 이를 반박하며 합격 가능성이 낮다고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 추가적인 요소를 고려하는 점은 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있으나, 전체적인 논리적 흐름이 다소 약합니다. 특히, 정시 성적에 대한 판단이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 평균 영어 등급과 합격 가능성에 대한 판단이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 느껴질 수 있습니다. 그러나 전반적으로 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.591419136943981</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급으로 보이는데, 동의대학교 간호학과의 지원자들의 평균 영어 등급은 1.86입니다. 표준 편차는 0.75로 상대적으로 낮은 수치입니다. 이는 동의대학교 간호학과에서 지원하는 학생들이 대체로 낮은 영어 점수를 가지고 있다는 것을 의미합니다.
+하지만, 정시 성적이 2.52라는 점수만으로는 충분한 판단을 내리기 어렵습니다. 다음과 같은 요소들을 고려해야 합니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 부분의 평균은 357.63이고, 표준 편차는 5.37입니다.
+2. **수능 4개 영역 등급**: 이 부분의 평균은 3.12이고, 표준 편차는 0.21입니다.
+이러한 요소들을 종합적으로 고려하면, 정시 성적이 2.52인 경우에도 최종 합격 가능성은 매우 낮다고 판단할 수 있습니다. 하지만, 동의대학교 간호학과에서는 지원자의 총점을 종합적으로 평가하기 때문에, 다른 영역에서 높은 점수를 받았다면 가능성을 높일 수 있을 것입니다.
+따라서, 정확한 답변을 위해서는 더 많은 정보와 지원자들의 전체 성적 분포를 고려해야 합니다. 만약 자세한 정보나 추가적인 조언이 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보를 제공하고 있으며, 3.7의 GPA로 합격하기 어려운 이유를 설명하고 있습니다. 그러나 "간호학과는 보통 높은 성적을 요구하며"라는 부분은 다소 일반화된 표현으로, 구체적인 수치가 제시되지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 정시 등급이 3.7인 경우 합격 가능성이 낮다는 점을 강조하고 있습니다. 그러나 "4.0 이상의 GPA를 가진 학생들이 많이 입학합니다"라는 부분은 원본 텍스트에서 언급되지 않은 정보로, 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "학생부와 면접 등 다른 평가 요소들도 고려되기 때문에"라는 부분이 다소 갑작스럽게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, GPA와 관련된 정보도 적절하게 제시하고 있습니다. 그러나 일부 추가 정보는 원본 텍스트에 명시되지 않은 내용입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현이 다소 일반적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.638787299492603</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 GPA로 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 보통 높은 성적을 요구하며, 특히 경쟁률이 높은 대학에서는 4.0 이상의 GPA를 가진 학생들이 많이 입학합니다.
+하지만 정확한 답변을 위해서는 해당 대학의 간호학과 정시 모집 성적 기준을 확인해야 합니다. 각 대학마다 요구하는 성적이 다르므로, 구체적인 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 관련 정보를 확인하시거나, 해당 대학의 입학처에 문의하시는 것이 좋습니다.
+또한, 학생부와 면접 등 다른 평가 요소들도 고려되기 때문에, GPA 외에도 긍정적인 면접 성적과 뛰어난 학생부를 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 제시된 성적 2.58이 영어 등급으로 보인다는 주장은 사실과 다릅니다. 원문에서는 2.58이 간호학과의 평균 등급보다 높은 성적이라고 언급하고 있으나, 생성된 응답에서는 이를 반박하는 내용이 포함되어 있어 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하는 정보를 제공하지만, 2.58이 영어 등급으로 보인다는 주장은 원문과 모순됩니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 지원 자격과 수능 점수 기준에 대한 정보를 제공하여 관련성이 높지만, 원문에서 제시된 성적에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 주제를 잘 연결하고 있습니다. 그러나 일부 정보가 원문과 상충하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2.58이 영어 등급으로 보인다는 주장은 사실과 다릅니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 내용이 원문과 상충하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.7303793564059411</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 지원 자격을 확인해보겠습니다.
+간호학과는 다음과 같은 지원 자격을 가지고 있습니다:
+- 일반고, 자율고, 특수목적고 (과학고, 국제고, 외국어고 포함), 예술고, 체육고, 마이스터고, 특성화고 (특성(직업) 및 특성(대안)), 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 지원 가능합니다.
+또한 간호학과의 정시 모집에 대한 수능 점수 기준을 확인해보겠습니다. 2024년 동의대학교 간호학과의 정시 모집에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63입니다.
+현재 제시된 성적인 2.58는 영어 등급으로 보이므로, 이 점수만으로는 간호학과에 정시 전형으로 지원하기에는 부족합니다. 
+영어 등급 평균은 1.86이며, 현재 제시된 2.58보다 높습니다. 따라서 영어 성적이 더 낮다면 합격 가능성은 매우 낮아집니다.
+결론적으로, 현재 제시된 성적인 2.58로는 간호학과에 정시 전형으로 지원하기에는 부족한 점수입니다. 다른 전형을 고려하거나 영어 성적을 향상시키는 것이 필요할 수 있습니다.
+https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 게임공학과의 모집 인원과 지원 인원에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 언급된 "예비 7번"에 대한 합격 가능성에 대한 명확한 언급이 부족하다. 또한, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 원본의 사실과 일치하지 않는다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(경쟁률, 평균 점수 등)를 포함하고 있어 일관성이 떨어진다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 면접 준비에 대한 조언을 포함하고 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지만, 원본의 핵심 내용인 예비 7번의 합격 가능성에 대한 직접적인 답변이 부족하다. 추가적인 정보는 유용할 수 있지만, 원본의 질문에 대한 직접적인 답변이 아닌 부가적인 정보로 보인다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 길고 복잡하여 가독성을 떨어뜨릴 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트의 주제와의 연결이 약하다. 면접 준비와 관련된 정보가 포함되어 있지만, 원본의 질문과의 논리적 흐름이 부족하다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(경쟁률, 평균 점수 등)를 포함하고 있어 정확성이 떨어진다. 원본의 핵심 내용인 예비 7번의 합격 가능성에 대한 정보가 왜곡되었다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성에서 부족함이 있다. 전반적으로 원본의 질문에 대한 적절한 답변이 되지 못하고 있다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과 관련된 정보를 제공하지만, 원본의 질문에 대한 직접적인 답변이 부족하여 의미적으로 완전하지 않다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 과도하게 복잡하게 제시되어 있어 이해하는 데 어려움이 있을 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5882674753420207</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 학생부종합에서 게임공학과의 모집인원은 3명이며, 지원 인원이 16명으로 경쟁률이 높습니다 (경쟁률 5.33). 평균 점수와 표준 편차를 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 303.05, 표준 편차 8.27
+- 영어 등급: 평균 3.25, 표준 편차 0.82
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 424.05, 표준 편차 8.06
+당신의 예비번호는 7번으로 중간에 위치하고 있습니다. 경쟁률이 높고 충원 합격 인원은 3명이라는 점을 고려하면, 좋은 성적과 특기사항을 잘 준비해야 합니다.
+특히, 면접에서는 지원동기와 학업계획, 전공적합성에 대한 답변이 중요합니다. 면접 질문 공통문항을 참고하여 답변을 미리 준비해보세요:
+1. **지원동기 및 학업계획**: 입학 후 어떤 목표를 세우고 이를 어떻게 달성할 계획인지를 이야기해 보세요.
+2. **학업역량**: 고교 생활 중 학업에 대한 어려움과 해결하기 위한 노력에 대해 이야기해 보세요.
+3. **전공적합성**: 지원 전공(계열)과 관련된 교내 활동을 이야기해 보세요.
+또한, 서류평가에서도 공동체역량, 학업역량, 전공적합성을 잘 반영해야 합니다. 예를 들어, 협력능력을 보여주는 사례나 학업에 대한 흥미와 주도적인 노력 등을 강조해보세요.
+이러한 준비가 충분히 이루어진다면 좋은 결과를 얻을 수 있을 것입니다. 자세한 내용은 "https://ipsi.deu.ac.kr/main.do"에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 성적과 관련된 정보를 제공하고 있으며, 게임공학과의 평균 등급과 비교하여 합격 가능성을 언급하고 있습니다. 그러나 추가 합격 가능성에 대한 예측이 다소 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가 합격 가능성에 대한 언급이 원본 텍스트의 내용과 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 성적과 추가 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가 합격 가능성에 대한 예측이 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6483910994331785</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 4개 영역 등급 평균을 기준으로 한 것입니다. 동의대학교 게임공학과는 일반적으로 수능 성적을 중요하게 고려합니다.
+다군 수능(일반학생전형)에서는 수능 4개 영역 등급 평균이 합격 기준에 큰 역할을 합니다. 게임공학과의 경우, 동등한 수능 점수를 가진 지원자들 사이에서 경쟁률이 높기 때문에 추가 합격 가능성은 낮습니다.
+하지만 다음과 같은 요인들을 고려하면 추가 합격 가능성에 영향을 줄 수 있습니다:
+1. **학생부 종합 평가**: 학생부 종합 평가에서 우수한 성적이나 활동이 있다면 이는 지원자의 경쟁력을 높일 수 있습니다.
+2. **면접 성적**: 면접에서도 좋은 성적이 나온다면 이는 추가 합격 가능성에 긍정적인 영향을 줄 수 있습니다.
+따라서, 4.16이라는 점수로 게임공학과에 지원하더라도 학생부 종합 평가와 면접 성적 등 다른 요소들이 중요하게 작용할 것입니다. 
+추가적으로 확인해야 할 사항은:
+- **면접 준비**: 면접에서 좋은 성적이 나올 수 있도록 충분히 준비하는 것이 필요합니다.
+- **학생부 종합 평가**: 학생부에 기재된 활동과 성적들이 우수하다면 이는 큰 도움이 될 것입니다.
+따라서, 4.16이라는 점수로 추가 합격 가능성은 낮지만, 다른 요소들을 잘 준비한다면 추가 합격 가능성은 열려 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세히 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 정보가 부족하다고 언급하고 있으며, 성적 기준이 3.75 이상이라면 최초 등록자로 가능할 것이라고 하지만, 이는 원문에서 제공된 정보와 다소 상충하는 부분이 있습니다. 원문에서는 3.75의 성적이 평균보다 높아 합격 가능성이 높다고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부분 일치하지만, "제공된 정보만으로는 경영정보학과의 정시 모집에 대한 자세한 내용이 포함되어 있지 않습니다"라는 문구는 원문에서의 긍정적인 합격 가능성과 모순됩니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 질문에 관련된 정보를 제공하고 있으며, 성적 기준과 공식 웹사이트를 참조하라는 조언을 포함하고 있어 관련성이 높습니다. 그러나 원문에서의 구체적인 데이터에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다소 상충하는 부분이 있으며, 성적 기준에 대한 해석이 원문과 일치하지 않습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 경영정보학과의 정시 모집에 대한 적절한 정보를 제공합니다. 그러나 원문에서의 긍정적인 합격 가능성에 대한 언급이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7160351219002534</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 자세한 내용이 포함되어 있지 않습니다. 따라서 경영정보학과에서 정시 모집을 진행하고 있으며 성적 기준이 3.75 이상이라면 최초 등록자로 가능할 것으로 보입니다.
+하지만, 정확한 답변을 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. 해당 대학교의 공식 입학 안내 웹사이트 (http://ipsi. deu. ac. kr)를 참조하여 경영정보학과의 정시 모집에 대한 자세한 내용을 확인하세요.
+2. 성적 기준이 3.75 이상이라면 최초 등록자로 가능할 것으로 보이나, 특정 학과의 경우 추가적인 요건이 있을 수 있으므로 공식 웹사이트를 통해 확인해보세요.
+추가적으로, 입학 전형일정을 참고하여 원서접수 및 서류 제출 등의 일정을 체크하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 4.2에 대한 최초등록자 가능성을 확정적으로 답변하기 어렵다고 언급하고 있습니다. 그러나 원본 텍스트에서는 4.2가 평균 등급보다 낮아 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있지만, 원본의 명확한 결론을 회피하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 최초등록자 자격 요건에 대한 추가 정보를 요구하고 있습니다. 이는 원본의 결론과 일치하지 않으며, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 최초등록자 자격 요건에 대한 정보를 제공하고 있으며, 관련된 절차와 참고사항을 언급하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 정시 성적 4.2에 대한 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 전개되고 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 4.2의 성적이 낮다는 명확한 결론을 회피하고 있습니다. 따라서 정확성에서 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본의 결론과는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6782526588513981</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과 정시 성적 4.2의 학생이 최초등록자로 가능한지 확정적으로 답변하기 어렵습니다. 최초등록자의 자격 요건은 단과대학, 모집단위, 지원자격 등에 따라 다르므로, 구체적인 정보를 확인해야 합니다.
+주요 절차와 참고사항:
+1. **모집단위별 요구 사항**: 경영정보학과의 정시 성적 기준을 충족했더라도, 단과대학이나 모집단위별로 다른 자격 요건이 있을 수 있습니다.
+2. **지원자격 확인**: 평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형 등에 지원할 수 있는 자격을 확인해야 합니다.
+추가적으로 필요한 정보:
+- 경영정보학과의 정시 모집단위별 최초등록자 자격 요건
+- 단과대학 (인문사회과학대학, 미래융합대학 등)의 최초등록자 자격 요건
+이러한 정보를 확인하기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처에 문의하는 것이 좋습니다.
+만약 추가로 필요한 정보가 있다면, 해당 정보를 제공해 주시면 더 구체적인 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 5.33이 합격 가능성이 낮다는 원본 텍스트의 주장을 반박하고 있으며, 평균적인 수능 점수에 대한 정보도 제공하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 다소 모호한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적 5.33에 대한 해석이 다르며, 원본 텍스트의 결론과 상충하는 부분이 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 합격 가능성에 대한 명확한 판단을 제공하지 않기 때문에 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 서로 연결되어 있지만, 원본 텍스트와의 연결이 약간 느슨해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 다소 상충하는 내용을 포함하고 있으며, 특히 수능 점수에 대한 평균적인 수치가 명확하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 전반적으로 원본 텍스트와의 일관성 및 정확성이 부족하여 중간 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 특정 세부 사항에서 다소 모호한 표현이 있어 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.7200488707977802</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적 5.33이 충분한지 확정적으로 판단하기 어렵습니다. 동의대학교 경영정보학과의 경우, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균을 확인해야 합니다.
+현재 데이터에서 경영정보학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 제공되지 않았습니다. 그러나 일반적으로 동의대학교 경영정보학과의 경우, 평균적인 수능 점수가 350~400 사이입니다.
+따라서 정시 성적 5.33이면, 이는 매우 높은 점수로 보이며, 이 정도의 점수라면 경쟁률이 낮은 모집단위에서는 충분히 합격할 수 있을 것입니다. 그러나 경영정보학과는 일반적으로 경쟁률이 높고, 평균적인 수능 점수가 필요합니다.
+따라서 정확한 판단을 위해서는 동의대학교 경영정보학과의 2024학년도 모집단위별 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균을 확인해야 합니다. 만약 해당 정보를 찾지 못하면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.33의 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 구체적인 수능 점수에 대한 정보는 제공하지 않고 있어 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 다소 모호한 부분이 있습니다. 원본의 평균 등급과 비교하여 3.33이 좋은 점수라고 하지만, 그에 대한 명확한 설명이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 바이오응용공학부에 지원하기 위한 여러 요소를 고려하는 점에서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 수치와의 연결이 다소 약해 보입니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있으며, 3.33의 성적이 좋은 점수라고 언급하고 있습니다. 그러나 구체적인 수능 점수에 대한 정보가 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 부분에서 더 구체적인 정보가 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6942517041595827</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>3.33 정도의 성적이 동의대학교 식 정시에서 바이오응용공학부에 최초등록자로 지원 가능한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집군과 전형**: 바이오응용공학부의 모집군과 전형을 확인해야 합니다. 일반적으로 정시 모집에서는 수능 점수가 중요합니다.
+2. **수능 점수**: 동의대학교 식 정시에서 바이오응용공학부에 지원 가능한 최소 수능 점수를 알아보아야 합니다. 이 정보는 대학 홈페이지나 입학처에서 확인할 수 있습니다.
+3. **경쟁률**: 현재의 경쟁률과 지원 인원, 모집 인원 등을 고려해야 합니다.
+주어진 데이터만으로는 정확한 판단이 어렵습니다. 하지만 일반적으로 3.33 정도의 성적은 중등 교육 기준에서 좋은 점수입니다. 그러나 수능 점수가 중요하기 때문에, 동의대학교 식 정시에서 바이오응용공학부에 지원 가능한 최소 수능 점수를 확인하시고, 현재의 경쟁률을 고려하여 결정해야 합니다.
+추가 정보를 원하신다면, 대학 홈페이지나 입학처에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 동의대학교의 공식 웹사이트를 방문해 보세요.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4라는 점을 고려할 때, 합격 가능성이 낮다고 명시된 원문과 상반된 주장을 하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 상충하는 내용을 포함하고 있습니다. 원문은 4.4 등급이 방사선학과의 평균 등급보다 낮다고 언급했으나, 생성된 응답은 4.4 등급이 충분히 가능할 것이라고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 고려사항을 제시하고 있어 관련성이 높습니다. 그러나 원문에서 제시된 핵심 정보와는 다소 거리가 있는 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 점을 나열하고 있으나, 각 점 사이의 연결이 다소 약해 보입니다. 따라서 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상반된 주장을 하고 있어 정확성 점수가 낮습니다. 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급의 관계를 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 관계에서 부적절한 주장을 포함하고 있어 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원문과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6481911347560232</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과에 지원하시려면, 학생부 교과성적 평균 등급이 4.4정도라면 충분히 가능할 것으로 보입니다. 하지만 정확한 판단을 위해서는 다음과 같은 점들을 확인해보시기 바랍니다.
+1. **2024학년도 방사선학과의 모집인원 및 지원인원**: 현재 제공된 정보로는 특정 학과의 모집인원이나 지원인원에 대한 자세한 내용이 없으므로, 해당 정보를 확인해보시기 바랍니다.
+2. **경쟁률**: 4.4정도의 등급으로 방사선학과에 지원한다면 경쟁률을 고려해야 합니다. 현재 제공된 데이터로는 특정 학과의 경쟁률을 알 수 없으므로, 해당 정보를 확인해보시기 바랍니다.
+3. **학생부 교과성적 반영방법**: 2024학년도 동의대학교에서는 전 모집단위에 대해 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다. 따라서 방사선학과에서도 이와 유사한 방법으로 교과성적을 평가할 것으로 보입니다.
+4. **추천 학교 및 학과**: 현재 제공된 정보만으로는 특정 학교의 특정 학과에 대한 정확한 추천이 어렵습니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 동의대학교 입학처와 연락을 취해보시는 것이 좋습니다.
+위의 점들을 고려하여 지원 계획을 세우시고, 필요하다면 추가적인 정보를 수집하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 등급과 관련된 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 방사선학과에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용을 반박하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보를 반영하지 않고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 정보가 없다고 주장하는 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6510731664563659</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 방사선학과에 대한 정보가 없기 때문에, 정확한 답변을 드리기 어렵습니다. 방사선학과의 경우 특별한 전형이 적용되거나, 특정 학교에서만 개설되어 있을 수 있습니다.
+만약 방사선학과가 개설되어 있고, 해당 학과의 경쟁률이나 입시 기준 점수가 2.66보다 낮다면, 현재의 점수는 상대적으로 안전할 수 있습니다. 반면에, 만약 경쟁률이 높거나 입시 기준 점수가 높다면, 2.66은 좀 위험한 수치일 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나, 해당 대학의 입시처로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 언급하고 있지만, 제공된 정보에 대한 구체적인 분석이 부족합니다. 또한, 합격 가능성에 대한 명확한 판단을 내리지 않고 추가 정보가 필요하다고 언급하여 다소 모호한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 원본에서 제시된 긍정적인 요소들(평균 성적이 높고 경쟁률이 낮아진 점)에 대한 언급이 부족하여 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있지만, 원본 텍스트의 핵심 포인트를 충분히 반영하지 못하고 있습니다. 특히, 경찰행정학전공 농어촌 전형에 대한 구체적인 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트의 흐름과 비교했을 때, 일부 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치나 사실을 충분히 반영하지 못하고 있습니다. 특히, 합격 가능성에 대한 예측이 모호합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변을 제공하고 있습니다. 그러나 원본 텍스트의 맥락을 완전히 반영하지는 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.522678242970505</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 정시 성적 3.66과 경찰행정학전공 농어촌 전형에 대한 자세한 내용이 필요합니다.
+특히, 다음과 같은 요소들이 중요하게 작용할 수 있습니다:
+1. **학교생활기록부 (학생부)**: 학생부의 평가 결과와 공동체역량, 학업역량, 전공적합성 등이 중요한 역할을 합니다.
+2. **면접 성적**: 일부 전형에서는 면접 점수가 합격 결정에 큰 영향을 미칩니다.
+3. **전형별 평균 성적**: 각 전형의 평균 성적이 어느 정도인지 확인해야 합니다.
+제공된 정보를 바탕으로, 정시 성적이 3.66이라면 경찰행정학전공 농어촌 전형에 지원하는 것은 가능하지만, 합격 확률을 정확히 예측하기 위해서는 더 많은 정보가 필요합니다. 
+추천 드리는 방법은:
+1. 해당 대학의 입시 홈페이지를 확인하여 각 전형별 평균 성적과 요구 조건 등을 확인합니다.
+2. 학교생활기록부와 면접 준비를 철저히 합니다.
+더 자세한 정보나 도움이 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 대학 입시 홈페이지를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 특정 학과와 예비 번호에 대한 정보는 포함되어 있지 않으며, 원본의 핵심 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 특정 학과에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 동점자 처리 기준에 대한 정보로 대체되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 일부 관련성을 가지고 있지만, 주제에서 벗어난 정보가 포함되어 있어 완전한 관련성을 제공하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 동점자 처리 기준에 대한 정보는 원본의 맥락과 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4632908195878568</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 동점자 처리 기준은 "수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자"입니다. 따라서, 수능 성적이 높다면 붙을 확률이 있습니다. 특히 국어와 수학의 표준점수가 높은 경우 더 유리할 것입니다.
+하지만, 동점자가 많을 가능성이 크므로, 확실한 답변을 위해서는 정확한 동점자들의 수능 점수를 확인해보시는 것이 좋습니다. 또한, 다른 전형들(예: 실기/실적, 학생부종합 등)에서도 지원하시면 더 좋은 결과를 얻을 수 있을 것입니다.
+더 궁금하신 사항이 있으시다면 https://ipsi.deu.ac.kr/main.do 에 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교 법경찰행정학부의 존재에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트에서 제공된 평균 성적 및 선발 기준과 관련된 정보와 일치하지 않습니다. 
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있으며, 법경찰행정학부에 대한 언급이 원본 텍스트와 일치하지 않습니다. 
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 입학 정보에 대한 내용을 포함하고 있지만, 원본 텍스트의 핵심 주제인 경찰행정학과의 평균 성적 및 안정권에 대한 정보와는 관련이 적습니다. 
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다. 
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 품질을 보이며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다. 
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 전체적으로 원본 텍스트의 맥락과 맞지 않는 내용이 많습니다. 
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽지만, 내용의 정확성과 관련성이 떨어져서 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.6655198494172722</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부의 정원 내 모집 인원은 40명이며, 현재 나군(농어촌 학생전형)에서 일반 학생으로 지원하는 인원이 2명입니다. 이에 따라 나군의 경우 남아 있는 정원은 38명입니다.
+나군에서는 평균 성적을 기준으로 선발되며, 동점자 처리기준은 다음과 같습니다:
+1. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+2. 영어교과 전 과목 등급 평균 상위자
+3. 국어교과 전 과목 등급 평균 상위자
+이 기준을 고려할 때, 안정권으로 들어가기 위해서는 최소 4.0 이상의 평균 성적을 받는 것이 좋습니다. 하지만 이는 단순 추정이며, 실제 선발 결과와 입학 가능 여부는 정확한 모집 실적과 경쟁률에 따라 결정됩니다.
+따라서, 가장 안전하게 들어갈 수 있는 평균 성적은 4.0 이상을 추천드립니다. 그러나 최종적인 결정을 내리기 전까지는 공식적인 입학 정보와 경쟁률 등을 확인하시길 바랍니다. 더 자세한 정보를 얻으시려면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 수능 4개 영역 등급 평균이 4.65로 언급되었으나, 원본 텍스트에서는 아동학과의 수능 4개 영역 등급 평균이 7.08로 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 수능 4개 영역 등급 평균과 관련된 정보가 서로 다르며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 원본 텍스트의 특정 세부사항을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 수치와 정보가 원본 텍스트와 크게 다르기 때문에 정확성 점수가 낮습니다. 특히, 수능 4개 영역 등급 평균이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제가 발생하여 전반적인 품질이 낮습니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 특정 세부사항을 잘못 해석하여 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 결론을 제시하고 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5788318415686587</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급을 가지고 동의대학교 보육가정상담학과에 지원한다면, 합격 가능성은 어느 정도일까?
+주어진 데이터를 바탕으로 분석해보겠습니다:
+1. **수능 4개 영역 등급 평균**: 4.65
+2. **수능 4개 영역 등급 표준 편차**: 0.21
+이 정보들을 통해, 동의대학교 보육가정상담학과의 수능 4개 영역 등급 평균은 4.65이며, 표준 편차는 0.21입니다.
+- **등급 변환 점수**: 일반적으로 등급을 변환할 때, 평균이 중심점이고 표준 편차가 분산을 나타냅니다.
+- **경쟁률 및 지원 인원**: 동의대학교 보육가정상담학과는 모집인원 15명에 42명이 지원하여 경쟁률이 2.80입니다.
+등급 변환 점수를 고려할 때, 평균 4.65와 표준 편차 0.21을 기준으로 5.33은 상당히 높은 등급입니다. 이는 대체로 상위권의 성적을 의미합니다.
+**결론**: 
+- **합격 가능성**: 5.33이라는 등급이 평균보다 훨씬 높기 때문에, 합격 가능성은 매우 높습니다.
+- **경쟁률 고려**: 경쟁률이 2.80으로 상대적으로 낮아서, 이 성적을 가지고 지원한다면 충분히 합격할 수 있을 것입니다.
+하지만, 최종 결정은 동의대학교 보육가정상담학과의 실제 입시 기준 및 기타 요인에 따라 달라질 수 있으므로, 공식적인 입시 안내를 확인하시기 바랍니다. 필요하다면, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 충원 합격자 발표와 관련된 정보와 다군 수능의 동점자 처리 기준을 언급하고 있지만, 원본 텍스트의 핵심 내용인 충원 합격 가능성에 대한 정보와는 관련이 적습니다. 예비 번호에 대한 언급이 없고, 동점자 처리 기준에 대한 정보는 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 충원 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 동점자 처리 기준에 대한 정보로 대체되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 충원 합격 가능성에 대한 질문에 대한 답변을 제공하는 반면, 생성된 응답은 수능 동점자 처리 기준에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 주제가 다르기 때문에 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(동점자 처리 기준)를 포함하고 있어 정확성이 떨어집니다. 원본 텍스트의 핵심 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.4928295249705069</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 합격 가능성을 판단하기 어렵습니다. 동의대학교의 경우, 다군 수능(일반학생전형)에서는 동점자 처리 기준이 명시되어 있습니다. 이 기준을 참고하면 다음과 같은 절차가 있을 것입니다:
+1. **수능 성적 순위**: 먼저 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점을 기준으로 합니다.
+2. **동점자 처리**: 동점자가 발생할 경우, 다음 순서로 처리합니다:
+   - 1순위: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+   - 2순위: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+따라서, 예비 12번을 받았다면 동점자가 발생했음을 의미합니다. 이 경우, 다음 순위로 처리될 가능성이 있습니다.
+**추천 사항:**
+- **수능 성적 확인**: 자신의 수능 성적을 다시 한 번 확인하고, 특히 국어와 수학의 표준점수를 확인하세요.
+- **동점자 처리 기준 이해**: 동점자 처리 기준을 잘 이해하고, 자신이 어느 순위에 해당하는지 파악하세요.
+- **입학관리팀 문의**: 입학관리팀에 직접 문의하여, 자신의 상황과 합격 가능성에 대해 자세히 설명받으시는 것이 좋습니다.
+더 많은 정보를 얻기 위해서는 입학관리팀이나 공식 홈페이지에서 확인하시거나, 전화로 문의하시는 것을 추천드립니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명확히 설명하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 했으나, 생성된 응답에서는 가능하다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용이지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 주장하지만, 원본 텍스트의 정보와 상충하여 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성이 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7068186174268117</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수를 가지고 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높고 입학하기 쉽지 않을 것입니다.
+유아교육학과의 경우, 평균적인 수능 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 303.44
+- 영어 등급: 3.88
+당신의 점수인 4.75는 이 평균보다 높습니다. 그러나 유아교육학과의 경쟁률이 매우 높기 때문에, 이 점수로 충분히 입학할 수 있는 보장은 없습니다.
+결론적으로, 당신의 성적은 유아교육학과에 지원하는 데 도움을 줄 것입니다만, 확실한 입학을 위해서는 더 높은 점수나 다른 전형을 고려해보시는 것이 좋습니다. 추가로, 학교와의 상담을 통해 최종적인 결정을 내리시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 환산등급인 3.87을 언급하고 있지만, 이는 원본 텍스트에서 제공된 정보와는 다릅니다. 원본 텍스트는 아동학과의 평균 등급에 대한 정보를 제공하고 있으며, 이와 관련된 정확한 비교가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 언급이 다르기 때문에 일관성이 떨어집니다. 원본 텍스트는 4.16의 등급이 아동학과의 평균 등급보다 높다고 명시하고 있으나, 생성된 응답은 충원 가능성에 대한 언급이 주를 이루고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 특정 세부사항을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 특정 세부사항을 잘못 해석하거나 누락하고 있습니다. 특히 평균 등급에 대한 정보가 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 그러나 일부 세부사항이 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5517406249259216</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16의 환산등급을 가지고 보육가정상담학과의 일반학생전형에 지원하여 충원된 학생들의 평균 환산등급인 3.87보다 높으므로, 이론적으로는 충원 가능성이 있습니다.
+하지만 실제 합격 여부는 여러 요소에 따라 달라질 수 있으니, 정확한 판단을 위해서는 해당 단과대학의 최종 합격 기준을 확인하시기 바랍니다. 또한 동점자 처리 기준 등도 고려해야 합니다.
+더 자세한 정보를 얻으시려면, https://ipsi. deu. ac. kr/main. do 를 방문하여 공식 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 언급하고 있지만, "정시모집으로 신설되지 않았다"는 정보는 원문에 포함되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, 다른 학과에 대한 정보는 추가되었지만, 원문과의 직접적인 관련성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분도 있지만, 추가된 정보가 원문과의 일관성을 떨어뜨립니다. 특히, 다른 학과에 대한 언급은 원문에서 요청한 정보와는 관련이 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 답변하고 있으며, 관련된 다른 학과에 대한 정보도 제공하고 있습니다. 그러나 원문에서 요구한 정보에 비해 다소 벗어난 부분이 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 관련성이 떨어지는 부분이 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 점에서는 정확하지만, 신설 여부에 대한 정보는 원문에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원문과의 직접적인 관련성이 떨어지는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.6059896484274572</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시모집으로 신설되지 않았습니다. 따라서 현재 정보에서는 소프트웨어융합학과로 정시로 지원할 수 없다는 결론을 내릴 수 있습니다.
+다만, 소프트웨어공학부와 관련된 학과들 중에서 정시로 지원 가능한 학과들이 있습니다. 예를 들어, 산업경영빅데이터공학과나 컴퓨터소프트웨어공학 등이 해당됩니다. 이들 학과의 경우 수능 성적을 기반으로 지원할 수 있으며, 평균적으로는 4등급 정도의 수능 점수를 받아야 하는 것으로 보입니다.
+만약 더 자세한 정보가 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나, 대학 입학처에 직접 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 서류 평가와 관련된 세부 사항을 잘 설명하고 있으며, 세특의 중요성을 강조하고 있습니다. 그러나 원본 텍스트에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 완전한 사실성을 반영하지는 못하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 서류 평가의 구성 요소에 대한 설명이 다소 추가적인 정보로 인해 원본과의 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 섹션이 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으나, 일부 세부 사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현이 다소 과도하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.5025436685194323</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>《서류 평가에서 세특 내용의 중요성》
+서류 평가는 학생부와 면접 점수를 종합적으로 고려합니다. 이 중에서도 세특(세부 능력 및 특기사항)은 중요한 역할을 합니다. 세특는 학생이 특정 영역에서 독특한 활동이나 성과를 보여주었음을 확인하는 부분입니다.
+따라서, 면접 점수보다 세특 내용에 더 많은 주의를 기울이는 것이 좋습니다. 특히 지원 전공(계열)과 관련된 활동을 많이 기재해두는 것이 중요합니다. 예를 들어, 소프트웨어 융합과 관련된 프로젝트나 동아리 활동 등을 자세히 기록해 두세요.
+《필요한 서류 준비》
+서류 평가에는 다음과 같은 서류가 필요합니다:
+1. 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+2. 검정고시 합격증서 사본 또는 합격증명서 1부
+3. 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+4. 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부
+위와 같은 서류를 준비하여 제출해야 합니다. 특히 세특 내용을 자세히 기재한 학교생활기록부가 필수적으로 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 언급된 "최고 평균 수능 4개 영역 등급은 4.49"라는 정보는 원본 텍스트에 포함된 "최초합격자의 수능 4개 영역 등급 평균은 4.12"와 상충합니다. 또한, 4.08의 성적이 "약간 낮은 수준"이라고 언급했지만, 원본 텍스트에서는 "약간 높은 수준"이라고 명시되어 있어 사실관계가 잘못 전달되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 수능 등급 평균에 대한 정보가 서로 다릅니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 일부 잘못된 정보로 인해 관련성이 약간 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 합격 가능성을 판단하기 위한 요소들을 나열하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 정보는 원본 텍스트와 여러 부분에서 부정확합니다. 특히 수능 등급 평균에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 응답이 원본 텍스트와 일치하지 않으며, 사실관계와 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 원본 텍스트의 맥락과 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7537444659373626</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최고 평균 수능 4개 영역 등급은 4.49입니다. 지원자의 수능 4개 영역 등급 평균이 4.08이라면, 이는 약간 낮은 수준으로 보입니다.
+그러나 정시 합격 여부는 단지 수능 점수뿐만 아니라, 국어+수학+탐구(2과목)의 표준 변환 점수, 영어 등급, 경쟁률 등을 고려해야 합니다. 지원자의 경우 평균 4.08이라는 수능 4개 영역 등급이 소프트웨어공학부 최고 평균 4.49보다 낮지만, 다른 요소들이 어떻게 작용할지에 따라 합격 가능성은 있습니다.
+따라서, 정확한 판단을 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. 지원자의 국어+수학+탐구(2과목)의 표준 변환 점수
+2. 지원자의 영어 등급
+3. 소프트웨어공학부의 경쟁률
+이러한 요소들을 종합적으로 고려하여 합격 가능성을 판단해야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi.deu.ac.kr/main.do 에 접속하시거나 관계된 부서에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있어, 원본 텍스트와의 일관성이 떨어집니다. 두 학과의 정보가 혼동되고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있지만, 질문의 핵심인 합격 가능성에 대한 정보는 포함되어 있습니다. 그러나 관련성이 떨어지는 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 소프트웨어융합학과와 소프트웨어공학부의 정보가 혼합되어 있어 일관성이 떨어집니다. 이로 인해 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락과 관련된 정보를 제공하고 있지만, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보로 대체되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 혼동으로 인해 일부 부분에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.4995168290165263</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 수능 4개 영역 등급의 평균이 4.49로, 표준 편차가 0.30입니다. 이 정보를 바탕으로 평균 5등급으로는 충분히 지원 가능할 것으로 보입니다.
+하지만 정확한 결과를 얻기 위해서는 해당 학과의 경쟁률과 지원 인원 등을 고려해야 합니다. 소프트웨어공학부의 경우, 지원 인원이 146명이고 모집인원은 30명으로 경쟁률이 높습니다 (경쟁률: 4.87). 따라서 평균 5등급만으로는 충분히 합격할 수 있는 확률이 낮을 것으로 예상됩니다.
+따라서, 국어+수학+탐구(2개)의 표준 변환 점수와 영어 등급도 고려해야 합니다. 평균 317.87의 표준 변환 점수와 평균 3.77의 영어 등급을 가지고 있다면, 더 높은 확률로 합격할 수 있을 것입니다.
+결론적으로, 평균 5등급만으로는 소프트웨어공학부에 지원하기 어렵다고 볼 수 있습니다. 다른 과목들의 점수와 영어 등급도 함께 고려하여 지원 계획을 세우시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 원본에서 제공된 합격 가능성에 대한 긍정적인 판단을 다소 회피하고 있습니다. 원본에서는 성적이 평균보다 높다고 명시하고 합격 가능성이 높다고 판단했으나, 생성된 응답은 더 많은 정보가 필요하다고 강조하며 불확실성을 부각시키고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 원본의 긍정적인 결론과는 상반된 내용을 제시하고 있습니다. 원본에서는 합격 가능성이 높다고 판단했으나, 생성된 응답은 확실한 합격을 보장할 수 없다고 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 지원 전략 및 추가 정보를 제시하고 있습니다. 그러나 원본의 핵심적인 판단을 다소 회피하고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽고 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본의 결론과는 다소 다른 방향으로 흐르고 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본의 사실을 일부 반영하고 있지만, 원본에서 제시된 합격 가능성에 대한 긍정적인 판단을 다소 왜곡하고 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 원본의 핵심 판단을 회피하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 원본의 긍정적인 결론을 다소 회피하고 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉽게 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6383057051791635</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 신소재공학부의 경쟁률이나 합격 기준 점수를 확인하기 어렵습니다. 정시 성적이 4.28이라는 점은 좋은 성적입니다만, 특정 대학과 전공의 합격 기준을 정확히 알기 위해서는 해당 대학의 입학사정관실이나 공식 웹사이트에서 최신 정보를 확인해야 합니다.
+대부분의 경우, 경쟁률이 높은 곳에서는 평균적인 성적 이상의 점수를 요구하기 때문에 4.28이라는 점수만으로는 확실한 합격을 보장받기는 어렵습니다. 그러나 이 점수는 좋은 성적이므로 동의대학교 신소재공학부에 지원하여 합격할 수 있는 가능성은 있습니다.
+더 정확한 정보를 얻기 위해서는 다음과 같은 방법들을 활용해보시는 것이 좋습니다:
+1. 동의대학교 공식 웹사이트에서 입학사정관실의 공지사항을 확인합니다.
+2. 동의대학교 입학사정관실에 직접 문의하여 최신 합격 기준 점수를 확인합니다.
+추가적으로, 지원 전략을 세우는 데 도움이 될 수 있는 정보로는:
+- 해당 전공의 합격 기준 점수
+- 경쟁률
+- 서류 평가 기준 등이 있습니다.
+위와 같은 방법들을 통해 더 정확한 정보를 얻으시고 지원 계획을 세우시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 동의대학교 입학사정관실에 문의하시거나, 공식 웹사이트에서 최신 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 잘못되어 있습니다. 원문에서는 자기소개서가 필요 없다고 명시하고 있지만, 생성된 응답에서는 자기소개서를 준비할 수 있다고 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문이 자기소개서가 필요 없다고 명확히 말하는 반면, 생성된 응답은 자기소개서를 준비할 수 있다고 하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 요구하는 정보에 비해 불필요한 세부사항이 많습니다. 원문은 간단한 질문에 대한 간단한 답변을 요구하는데, 생성된 응답은 추가적인 정보와 링크를 제공하여 주제를 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문에 대한 직접적인 답변이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문이 자기소개서가 필요 없다고 명시한 반면, 생성된 응답은 이를 부정하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문이 요구하는 간단한 정보에 비해 불필요한 세부사항이 많아 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 한국어 사용자가 이해하기 어려운 중국어로 작성되어 있어, 이해하기 힘든 부분이 많습니다. 원문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.3755269508995496</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的来说，对于东义大学的“一般学生入学”（가）军类型招生，并不需要提交个人陈述书或自我介绍信。这类招生主要依据学生的高考成绩进行选拔。
+但是为了更好地展示自己，你可以准备一份简短的自我介绍内容，作为参考材料提供给学校。这份材料可以包括你的兴趣爱好、特长以及为什么选择该专业等内容。不过需要注意的是，这并不是必须提交的文件，具体要求请参照东义大学官方网站上的最新招生信息或咨询相关部门。
+如果需要进一步确认，请访问以下链接以获取最准确的信息：https://ipsi. deu. ac. kr/main. do
+希望这些信息对你有帮助！如果有其他问题也可以随时询问。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 평균 등급과 표준 편차를 고려해야 한다는 점도 언급하고 있습니다. 그러나 특정 학과의 평균 점수와 표준 편차에 대한 예시가 다소 불명확하게 제시되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 수능 점수와 학과 선택에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 특정 학과의 평균 점수와 표준 편차에 대한 정보가 다소 모호하게 제시되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 사실성에서 높은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 세부 사항에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 몇몇 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7160885077974881</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 점수가 주어졌을 때, 동의대학교에 지원할 수 있는 학과를 결정하는 데는 몇 가지 요소가 고려되어야 합니다.
+1. **학과별 경쟁률**: 지원하고자 하는 학과의 경쟁률이 중요합니다. 경쟁률이 높은 학과에서는 4.5라는 점수가 충분히 낮아서 선발되지 않을 가능성이 있습니다.
+2. **평균 및 표준 편차**: 주어진 데이터에서 각 학과의 수능 평균 점수와 표준 편차를 확인하여, 지원하고자 하는 학과가 4.5라는 점수에 얼마나 가까운지 판단해야 합니다.
+3. **추가모집 가능성**: 추가모집이 가능한 학과인지 확인해야 합니다.
+주어진 데이터에서 특정 학과의 수능 평균 점수와 표준 편차를 확인하여, 4.5라는 점수가 어느 정도 범위에 속하는지 판단할 수 있습니다. 예를 들어, 한의예과(수학&lt;미적분/기하&gt;)의 경우 평균이 538.33이고 표준 편차가 0.93이라는 것을 확인할 수 있습니다.
+따라서, 4.5라는 점수가 어느 학과에 더 가까운지 판단하기 위해서는 각 학과의 수능 평균 점수와 표준 편차를 확인해야 합니다. 만약 특정 학과의 평균이 4.5보다 높고 표준 편차가 작다면, 그 학과에 지원하는 것은 어려울 것입니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 최신 데이터와 추가모집 가능 여부를 확인하시거나, 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부의 정시 등급 기준에 대한 정보를 제공하지 않는다고 주장하지만, 원본 텍스트에서는 신소재공학과의 평균 등급에 대한 구체적인 수치가 제공되고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 정시 등급 기준이 없다고 주장합니다. 이는 원본 텍스트의 정보와 상충되므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 신소재공학부의 정시 등급 기준에 대한 정보를 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신소재공학부의 평균 등급에 대한 정보를 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6211176426906245</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 등급 기준이 없습니다. 정시 모집군과 등급 기준은 다른 학과들에 대해서만 언급되어 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 최신 정시 모집 안내 및 등급 기준을 확인해 보시거나, 대학 입학처에 직접 문의하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, 447점이 작년 평균 점수보다 높다는 사실을 명확히 언급하지 않고 있습니다. 또한, 충원 가능성에 대한 언급이 있지만, 이는 명확한 수치적 근거 없이 일반적인 설명으로만 이루어져 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 작년 평균 점수와 비교할 때 447점이 높다는 점을 명확히 하지 않아 일관성이 떨어집니다. 또한, 충원 가능성에 대한 설명이 원본의 정보와 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원자의 점수와 충원 가능성에 대한 정보를 제공합니다. 그러나 원본의 핵심 정보인 평균 점수에 대한 명확한 언급이 부족하여 점수가 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 완전한 일관성을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 447점이 평균 점수보다 높다는 점을 명확히 하지 않아 정확성이 떨어집니다. 또한, 충원 가능성에 대한 설명이 다소 모호합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보가 명확하지 않아 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6136630336047549</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 각 모집단위별 경쟁률과 지원자 수, 충원 합격 인원 등을 고려할 때 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았던 것은 사실입니다. 하지만 정시 모집에서의 경쟁률은 매년 변동이 있을 수 있으며, 지원자의 성적 분포가 달라지면 결과도 달라질 수 있습니다.
+현재 제공된 정보만으로는 작년과 동일한 점수가 충원될 가능성을 확실히 말하기 어렵습니다. 하지만 447점이 근접한 점수인 만큼, 충원 가능성은 존재합니다. 특히 경쟁률이 낮아진다면 더 높은 확률로 충원될 수 있습니다.
+추가적으로, 동의대학교 입학사정관들이 서류평가와 면접을 통해 지원자의 전반적인 능력을 종합적으로 평가하기 때문에, 단순 표준점수만으로는 충분하지 않습니다. 지원자의 학업태도, 협업능력, 전공적합성 등 다양한 요소들이 고려됩니다.
+따라서, 작년과 유사한 점수가 충원될 가능성은 있지만 확실하게 말하기 어렵습니다. 입학사정관들의 평가와 지원자의 전반적인 능력을 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 입학상담을 통해 확인하는 것이 좋겠습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 성적에 대한 구체적인 수치나 평균 성적에 대한 언급이 부족하여 정확성이 떨어진다. 특히, "4.3 등급대의 성적이 4.1~4.2 정도로 예상된다면"이라는 부분은 원본 텍스트의 내용을 왜곡하고 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적에 대한 해석이 다소 다르게 나타나고 있다. 원본 텍스트는 귀하의 성적이 평균보다 높다고 언급했으나, 생성된 응답은 "중간 수준에 해당"한다고 하여 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보나 조언이 포함되어 있어 다소 주제를 벗어난 느낌이 있다. 그러나 전반적으로 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 성적에 대한 해석이 부정확하여 정확성이 떨어진다. 특히, 성적의 상대적 위치에 대한 설명이 원본과 일치하지 않는다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 종합적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 표현이 원본의 의도와 다르게 해석될 수 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5908103974837556</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 예상된다면, 신소재공학과의 일반학생전형에 합격할 수 있을지는 여러 요인에 따라 다릅니다.
+신소재공학과의 경우, 모집 인원이 4 이내이며 지원 인원이 많을 가능성이 높습니다. 따라서 경쟁률이 상대적으로 높을 것으로 예상됩니다. 평균 등급과 표준 편차를 고려할 때, 4.1~4.2 정도의 성적은 중간 수준에 해당하므로, 합격 가능성은 있지만 확실하지는 않습니다.
+합격 가능성을 높이기 위해서는 다음과 같은 방법을 시도해볼 수 있습니다:
+1. **추천서 작성**: 선생님이나 지인에게 추천서를 받아보세요.
+2. **면접 준비**: 면접에 대비하여 관련 질문들을 미리 연습해보세요.
+3. **추가 자격증 취득**: 관련 자격증을 취득하여 지원자들의 경쟁력을 높이는 데 도움이 되는 자료를 제공하세요.
+또한, 동의대학교의 합격 기준과 경쟁률 등을 확인하고, 다른 대학이나 전형도 고려해보시는 것이 좋습니다. 더 정확한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 성적 정보를 여러 부분에서 잘못 전달하고 있습니다. 예를 들어, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균이 419.33로 잘못 기재되어 있으며, 원본 텍스트의 평균 301.87과는 큰 차이가 있습니다. 영어 등급과 수능 4개 영역 등급 또한 원본과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 성적 수치가 모두 다르며, 원본의 정보와 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 성적 정보의 부정확성으로 인해 전체적인 신뢰성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답의 성적 정보는 원본 텍스트와 비교했을 때 매우 부정확합니다. 모든 주요 성적 수치가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 관련성은 높지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제에 맞는 내용을 담고 있지만, 잘못된 성적 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7873841409119882</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과 수능 일반학생전형에 대한 최초합격자들의 성적을 확인해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 419.33, 표준 편차 9.73
+- **영어 등급**: 평균 3.88, 표준 편차 0.31
+- **수능 4개 영역 등급**: 평균 4.65, 표준 편차 0.21
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 419.33, 표준 편차 9.73
+이러한 성적을 기반으로 동의대학교 인공지능학과 수능 일반학생전형에 지원하시면 좋은 결과를 얻을 수 있을 것입니다. 성적이 중요한 요소이지만, 출결상황이나 학교생활기록부 등도 함께 고려되기 때문에 전반적인 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 성적 산출 방법에 대한 일반적인 설명을 제공하지만, 원본 텍스트에서 제공된 구체적인 학과별 성적 평균 및 충원 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 구체적인 학과별 성적 정보가 없기 때문에 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 추천입학(추합)에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 학과 정보와 비교할 때 다소 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 동의대학교의 성적 산출 방법에 대한 설명을 포함하고 있지만, 원본 텍스트의 구체적인 데이터와 비교할 때 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질을 종합적으로 고려할 때, 생성된 응답은 원본 텍스트의 정보와 비교할 때 부족한 점이 많아 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제에 적합한 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6728735578004928</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에 추천입학(추합)이 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위**: 어떤 단과대학과 계열, 모집단위를 지원할 것인지 확인해야 합니다.
+2. **성적 산출방법**: 해당 모집단위의 성적 산출 방법을 알아야 합니다.
+현재 제공된 정보로는 특정 단과대학이나 모집단위에 대한 성적 반영 방식이 명확히 나와 있지 않습니다. 하지만 일반적으로 동의대학교의 성적 산출방법은 수능 점수를 기반으로 하며, 일부 모집단위에서는 학생부 교과성적도 반영할 수 있습니다.
+**예시로 설명해보겠습니다:**
+1. **인문사회과학대학, 상경대학 모집단위**: 이 경우 성적 산출 방식은 다음과 같습니다.
+   - 국어 표준점수 25%
+   - 수학 표준점수 25%
+   - 영어 등급 점수 25%
+   - 탐구 표준점수 25%
+   만약 이 모집단위에서 지원한다면, 수능 성적만으로는 충분히 경쟁력을 갖추고 추합이 가능할 것입니다. 하지만 학생부 교과성적이 더 높다면 그 부분도 고려될 수 있습니다.
+2. **공과대학, ICT융합공과대학 모집단위**: 이 경우 성적 산출 방식은 다음과 같습니다.
+   - 국어 표준점수 25%
+   - 수학 표준점수 25%
+   - 영어 등급 점수 25%
+   - 탐구 표준점수 25%
+   - 가산점(수학 미적분 또는 기하 응시자: 수학 표준점수 x 0.1)
+   이 경우에도 수능 성적이 높다면 추합이 가능할 것입니다.
+따라서, 정확한 판단을 위해서는 특정 단과대학과 모집단위에 대한 성적 산출 방법을 확인해야 합니다. 만약 구체적인 정보를 제공하지 않으시면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입학처 웹사이트에서 해당 정보를 확인하실 수 있습니다.
+추후에 더 구체적인 정보를 제공해주시면, 더욱 정확한 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 모집 인원에 대한 정보를 제공하지만, 4.2의 성적이 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에 따르면 4.2는 평균보다 높은 성적이므로 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보(영어 등급 평균 등)를 포함하고 있지만, 4.2의 성적에 대한 해석이 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 지원 자격과 경쟁률을 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 4.2의 성적에 대한 해석이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 맥락과 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5815591880704114</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원 자격과 경쟁률을 고려해보겠습니다.
+- **모집 인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 4.87
+2024학년도 동의대학교 소프트웨어공학부의 경쟁률은 약 4.87입니다. 이는 매우 높은 경쟁률을 나타내며, 평균 점수와 표준 편차를 고려할 때 지원자의 성적이 4.2라면 합격 가능성은 낮다고 볼 수 있습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균**: 317.87
+- **영어 등급 평균**: 3.77
+4.2의 성적은 평균보다 낮으며, 이는 경쟁률이 높고 지원자가 많은 상황에서 합격하기 어렵다는 것을 의미합니다.
+하지만, 최종 합격 여부는 여러 요소에 따라 결정되므로, 정확한 합격 가능성은 모의고사 성적이나 개인적인 특성 등을 고려하여 판단해야 합니다. 만약 확실한 결과를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인하거나, 학교 관계자와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 지원 가능성에 대한 정보를 잘 반영하고 있습니다. 그러나 구체적인 수능 점수와 탐구 과목의 점수에 대한 가정이 포함되어 있어, 실제 상황과 다를 수 있는 점이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 계산과 가정이 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 수능 점수와 탐구 과목의 점수에 대한 가정이 원본 텍스트에 명시된 정보와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부에 지원할 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가적인 정보가 많아 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 가정된 수능 점수와 계산이 실제 상황과 다를 수 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 가정된 점수에 대한 설명이 추가되어 있어 다소 복잡하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 계산과 가정이 포함되어 있어 처음 읽는 사람에게는 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6673841662510892</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적을 가지고 화학환경공학부 일반 학생 전형에 지원이 가능한지 확인해보겠습니다.
+주어진 정보를 바탕으로, 화학환경공학부의 경우 "국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%"의 반영 방식을 사용합니다.
+이 중에서 국어, 수학, 영어는 표준점수를 사용하며, 탐구 영역은 사회탐구와 과학탐구 중 선택하여 2개 과목의 점수를 합산합니다. 
+3.92라는 성적을 가정하면, 이는 대체로 좋은 성적이므로 지원 가능성이 높습니다. 하지만 정확한 판단을 위해서는 실제 수능 점수와 탐구 영역에서 선택한 과목의 점수를 확인해야 합니다.
+만약에 국어 104점, 수학(미적분) 108점, 영어 4등급 (123점), 탐구 영역에서 사회탐구와 과학탐구 각각 59점과 47점을 받았다면:
+- 국어: 104 * 0.25 = 26
+- 수학(미적분): 108 * 0.25 = 27
+- 영어: 123 * 0.25 = 30.75 (점수는 소수점 이하 반올림하여 31)
+- 탐구: (59 + 47) * 0.25 = 28
+총합계 점수: 26 + 27 + 31 + 28 = 112
+이 경우 총점은 112로, 이는 좋은 성적입니다.
+따라서, 3.92라는 성적이 실제 수능 점수와 탐구 영역에서의 선택을 반영한다면 화학환경공학부 일반 학생 전형에 지원이 가능할 것으로 보입니다. 하지만 최종 결정은 해당 대학의 정시 모집원칙과 지원자의 전체적인 성적 및 탐구 과목 점수를 고려하여 이루어져야 합니다.
+더 자세한 정보나 추가 확인이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 구체적인 데이터를 제공하고 있지만, 원본 텍스트에서 제시된 합격 가능성에 대한 판단을 부정하고 있습니다. 원본 텍스트는 성적이 4.25인 경우 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 이를 반박하고 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제시된 합격 가능성에 대한 판단과 상충하는 정보를 제공합니다. 따라서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부와 관련된 정보를 제공하고 있으며, 추가적인 정보 요청에 대한 안내도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 거리가 있어 점수를 약간 낮게 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 일관되지 않아서 논리적 흐름이 약간 부족합니다. 따라서 일관성 점수가 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 원본에서 제시된 합격 가능성에 대한 판단을 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 점수가 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6720061969152314</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 화학환경공학부의 수능 일반학생전형 경쟁률이나 합격 기준 점수를 정확히 알 수 없습니다. 따라서, 정시 성적이 4.25인 경우 해당 학과에 합격할 가능성이 있는지 판단하기 어렵습니다.
+추가 정보:
+- 동의대학교 화학환경공학부의 수능 일반학생전형 경쟁률이나 합격 기준 점수를 확인해야 합니다.
+- 다른 대학의 같은 학과나 유사한 학과의 수능 일반학생전형 경쟁률을 참고할 수도 있습니다.
+더 정확한 판단을 위해서는 동의대학교 화학환경공학부의 공식 입시 정보 페이지를 방문하거나, 동의대학교 입학처에 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트를 확인하실 수 있습니다.
+이러한 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 언제든지 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 영화학과에 대한 정보 대신 상경대학의 다른 학과들의 경쟁률을 제공하고 있으며, 영화학과의 구체적인 성적 정보와 관련된 내용을 포함하지 않고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 영화학과에 대한 직접적인 정보가 부족합니다. 다른 학과의 경쟁률을 언급하면서 영화학과와의 관련성을 명확히 하지 못하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 영화학과에 대한 질문에 대한 답변으로는 적절하지 않지만, 경쟁률에 대한 정보는 일부 관련성이 있습니다. 그러나 영화학과에 대한 직접적인 정보가 부족하여 전체적으로는 낮은 점수를 받습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 매끄럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과의 경쟁률을 나열하고 있지만, 영화학과와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 영화학과에 대한 정확한 정보를 제공하지 않으며, 다른 학과의 경쟁률을 언급하는 것은 원본 텍스트의 사실과 일치하지 않습니다. 영화학과에 대한 성적 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다. 정보의 정확성과 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 영화학과에 대한 질문에 대한 답변으로는 적절하지 않지만, 경쟁률에 대한 정보는 의미적으로 관련이 있습니다. 그러나 영화학과와의 직접적인 연관성이 부족하여 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 내용의 일관성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.669744647762113</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>2024년 상경대학의 각 학과별 경쟁률을 살펴보겠습니다. 영화학과에 해당하는 정보가 직접 주어지지 않았으므로, 유사한 학과들의 경쟁률을 참고하겠습니다.
+1. **경영학과**: 경쟁률은 4.33입니다.
+2. **회계학과**: 경쟁률은 2.00입니다.
+3. **경영정보학과**: 경쟁률은 10.56입니다.
+4. **e비즈니스학과**: 경쟁률은 8.90입니다.
+영화학과와 가장 유사한 학과는 e비즈니스학과로 볼 수 있습니다. e비즈니스학과의 경쟁률이 8.90이며, 이는 상대적으로 낮은 편입니다. 
+현재 성적이 4.2라면, 이는 평균적인 수능 점수보다 약간 높은 수준을 나타냅니다. e비즈니스학과의 경쟁률이 8.90이고, 이 학과의 수능 4개 영역 등급 평균이 4.17입니다.
+따라서, 성적이 4.2인 경우, 영화학과에 지원하는 것은 가능성이 있지만, 경쟁률이 높은 학과들보다는 낮은 편입니다. 
+**결론**: 현재의 성적으로는 영화학과에 지원하여 합격할 수 있는 가능성은 있으나, 확실한 것은 아닙니다. 정확한 합격 가능성을 확인하려면, 해당 학과의 최종 경쟁률과 평균 점수를 확인하시기 바랍니다.
+더 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 원본 텍스트의 내용을 대부분 정확하게 반영하고 있습니다. 그러나 추가된 정보(입학사정관 2인, 블라인드 면접 등)는 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 절차를 따르지만, 추가된 정보가 원본과 일치하지 않거나 원본의 맥락을 벗어나는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차에 대한 설명이 명확하게 이어집니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않아 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7404949953508085</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 입학사정관 2인이 평가위원으로 참여하여 수험생 1명을 대상으로 개별적 평가를 진행합니다. 또한, 블라인드 면접 방식으로 개인 신상 정보 (수험번호, 성명, 출신고교, 부모 직업 등) 노출이 금지되며 교복 착용도 금지됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
